--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F77DF40-B7E5-4D6D-8287-E9DB97464FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B80F6-B78B-4E02-85DA-8E0B7B781AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必須機能スケジュール" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -516,6 +516,18 @@
     <t>Common・connectionManager</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>75％</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>65％</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0％</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1972,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2623,6 +2635,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3641,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDD62B1-0787-413B-81BF-C3150736C6CD}">
   <dimension ref="A1:BT111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U12" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3651,10 +3669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="229" t="s">
+      <c r="B1" s="231" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="133" t="s">
@@ -3664,84 +3682,84 @@
       <c r="E1" s="134"/>
       <c r="F1" s="134"/>
       <c r="G1" s="135"/>
-      <c r="H1" s="232" t="s">
+      <c r="H1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="235">
+      <c r="I1" s="237">
         <v>45901</v>
       </c>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="235">
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="239"/>
+      <c r="AM1" s="237">
         <v>45931</v>
       </c>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="236"/>
-      <c r="AZ1" s="236"/>
-      <c r="BA1" s="236"/>
-      <c r="BB1" s="236"/>
-      <c r="BC1" s="236"/>
-      <c r="BD1" s="236"/>
-      <c r="BE1" s="236"/>
-      <c r="BF1" s="236"/>
-      <c r="BG1" s="236"/>
-      <c r="BH1" s="236"/>
-      <c r="BI1" s="236"/>
-      <c r="BJ1" s="236"/>
-      <c r="BK1" s="236"/>
-      <c r="BL1" s="236"/>
-      <c r="BM1" s="236"/>
-      <c r="BN1" s="236"/>
-      <c r="BO1" s="236"/>
-      <c r="BP1" s="236"/>
+      <c r="AN1" s="238"/>
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="238"/>
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="238"/>
+      <c r="AV1" s="238"/>
+      <c r="AW1" s="238"/>
+      <c r="AX1" s="238"/>
+      <c r="AY1" s="238"/>
+      <c r="AZ1" s="238"/>
+      <c r="BA1" s="238"/>
+      <c r="BB1" s="238"/>
+      <c r="BC1" s="238"/>
+      <c r="BD1" s="238"/>
+      <c r="BE1" s="238"/>
+      <c r="BF1" s="238"/>
+      <c r="BG1" s="238"/>
+      <c r="BH1" s="238"/>
+      <c r="BI1" s="238"/>
+      <c r="BJ1" s="238"/>
+      <c r="BK1" s="238"/>
+      <c r="BL1" s="238"/>
+      <c r="BM1" s="238"/>
+      <c r="BN1" s="238"/>
+      <c r="BO1" s="238"/>
+      <c r="BP1" s="238"/>
       <c r="BQ1" s="63"/>
     </row>
     <row r="2" spans="1:69">
-      <c r="A2" s="227"/>
-      <c r="B2" s="230"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="232"/>
       <c r="C2" s="136"/>
       <c r="D2" s="137"/>
       <c r="E2" s="137"/>
       <c r="F2" s="137"/>
       <c r="G2" s="138"/>
-      <c r="H2" s="233"/>
+      <c r="H2" s="235"/>
       <c r="I2" s="42">
         <v>42156</v>
       </c>
@@ -3927,14 +3945,14 @@
       </c>
     </row>
     <row r="3" spans="1:69" ht="13.8" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="231"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="233"/>
       <c r="C3" s="139"/>
       <c r="D3" s="140"/>
       <c r="E3" s="140"/>
       <c r="F3" s="140"/>
       <c r="G3" s="141"/>
-      <c r="H3" s="234"/>
+      <c r="H3" s="236"/>
       <c r="I3" s="44" t="s">
         <v>10</v>
       </c>
@@ -4120,20 +4138,22 @@
       </c>
     </row>
     <row r="4" spans="1:69">
-      <c r="A4" s="238">
+      <c r="A4" s="240">
         <v>1</v>
       </c>
       <c r="B4" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="246"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="248" t="s">
+        <v>72</v>
+      </c>
       <c r="I4" s="45"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
@@ -4149,7 +4169,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="20"/>
       <c r="W4" s="93"/>
-      <c r="X4" s="10"/>
+      <c r="X4" s="187"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -4197,14 +4217,14 @@
       <c r="BQ4" s="56"/>
     </row>
     <row r="5" spans="1:69">
-      <c r="A5" s="239"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="113"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="247"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="249"/>
       <c r="I5" s="47"/>
       <c r="J5" s="118"/>
       <c r="K5" s="22"/>
@@ -4212,11 +4232,11 @@
       <c r="M5" s="225"/>
       <c r="N5" s="23"/>
       <c r="O5" s="24"/>
-      <c r="P5" s="22"/>
+      <c r="P5" s="225"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="23"/>
       <c r="V5" s="24"/>
       <c r="W5" s="97"/>
@@ -4268,20 +4288,22 @@
       <c r="BQ5" s="57"/>
     </row>
     <row r="6" spans="1:69">
-      <c r="A6" s="238">
+      <c r="A6" s="240">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="254"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="256" t="s">
+        <v>72</v>
+      </c>
       <c r="I6" s="33"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -4297,7 +4319,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="19"/>
       <c r="W6" s="95"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="187"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -4345,14 +4367,14 @@
       <c r="BQ6" s="58"/>
     </row>
     <row r="7" spans="1:69">
-      <c r="A7" s="239"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="255"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="257"/>
       <c r="I7" s="48"/>
       <c r="J7" s="117"/>
       <c r="K7" s="116"/>
@@ -4360,11 +4382,11 @@
       <c r="M7" s="38"/>
       <c r="N7" s="39"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="38"/>
+      <c r="P7" s="116"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="T7" s="116"/>
       <c r="U7" s="39"/>
       <c r="V7" s="40"/>
       <c r="W7" s="97"/>
@@ -4416,20 +4438,22 @@
       <c r="BQ7" s="115"/>
     </row>
     <row r="8" spans="1:69">
-      <c r="A8" s="238">
+      <c r="A8" s="240">
         <v>3</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="248" t="s">
+      <c r="C8" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="254"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="256" t="s">
+        <v>72</v>
+      </c>
       <c r="I8" s="33"/>
       <c r="J8" s="147"/>
       <c r="K8" s="147"/>
@@ -4445,7 +4469,7 @@
       <c r="U8" s="14"/>
       <c r="V8" s="19"/>
       <c r="W8" s="95"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="187"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -4493,14 +4517,14 @@
       <c r="BQ8" s="58"/>
     </row>
     <row r="9" spans="1:69">
-      <c r="A9" s="239"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="252"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="255"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="257"/>
       <c r="I9" s="48"/>
       <c r="J9" s="116"/>
       <c r="K9" s="116"/>
@@ -4508,11 +4532,11 @@
       <c r="M9" s="116"/>
       <c r="N9" s="39"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="38"/>
+      <c r="P9" s="116"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
+      <c r="T9" s="116"/>
       <c r="U9" s="39"/>
       <c r="V9" s="40"/>
       <c r="W9" s="97"/>
@@ -4564,20 +4588,22 @@
       <c r="BQ9" s="115"/>
     </row>
     <row r="10" spans="1:69">
-      <c r="A10" s="238">
+      <c r="A10" s="240">
         <v>4</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="248" t="s">
+      <c r="C10" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="254"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="256" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="33"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -4593,7 +4619,7 @@
       <c r="U10" s="14"/>
       <c r="V10" s="19"/>
       <c r="W10" s="95"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="187"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -4641,14 +4667,14 @@
       <c r="BQ10" s="58"/>
     </row>
     <row r="11" spans="1:69">
-      <c r="A11" s="239"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="255"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="257"/>
       <c r="I11" s="48"/>
       <c r="J11" s="22"/>
       <c r="K11" s="90"/>
@@ -4656,11 +4682,11 @@
       <c r="M11" s="116"/>
       <c r="N11" s="39"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="38"/>
+      <c r="P11" s="116"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
+      <c r="T11" s="116"/>
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="97"/>
@@ -4712,20 +4738,22 @@
       <c r="BQ11" s="115"/>
     </row>
     <row r="12" spans="1:69">
-      <c r="A12" s="238">
+      <c r="A12" s="240">
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="248" t="s">
+      <c r="C12" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="254"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="256" t="s">
+        <v>72</v>
+      </c>
       <c r="I12" s="33"/>
       <c r="J12" s="7"/>
       <c r="K12" s="78"/>
@@ -4789,14 +4817,14 @@
       <c r="BQ12" s="58"/>
     </row>
     <row r="13" spans="1:69">
-      <c r="A13" s="239"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="255"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="255"/>
+      <c r="H13" s="257"/>
       <c r="I13" s="48"/>
       <c r="J13" s="38"/>
       <c r="K13" s="145"/>
@@ -4804,10 +4832,10 @@
       <c r="M13" s="38"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
@@ -4860,22 +4888,24 @@
       <c r="BQ13" s="115"/>
     </row>
     <row r="14" spans="1:69">
-      <c r="A14" s="238">
+      <c r="A14" s="240">
         <v>7</v>
       </c>
-      <c r="B14" s="272" t="s">
+      <c r="B14" s="274" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="248" t="s">
+      <c r="C14" s="250" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="249"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="249" t="s">
+      <c r="D14" s="251"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="250"/>
-      <c r="H14" s="275"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="277" t="s">
+        <v>72</v>
+      </c>
       <c r="I14" s="74"/>
       <c r="J14" s="75"/>
       <c r="K14" s="75"/>
@@ -4939,14 +4969,14 @@
       <c r="BQ14" s="130"/>
     </row>
     <row r="15" spans="1:69">
-      <c r="A15" s="264"/>
-      <c r="B15" s="273"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="263"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="278"/>
       <c r="I15" s="88"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
@@ -4954,8 +4984,8 @@
       <c r="M15" s="82"/>
       <c r="N15" s="83"/>
       <c r="O15" s="86"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="226"/>
       <c r="R15" s="82"/>
       <c r="S15" s="82"/>
       <c r="T15" s="82"/>
@@ -5010,16 +5040,18 @@
       <c r="BQ15" s="87"/>
     </row>
     <row r="16" spans="1:69">
-      <c r="A16" s="264"/>
-      <c r="B16" s="273"/>
-      <c r="C16" s="274"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="263"/>
-      <c r="F16" s="249" t="s">
+      <c r="A16" s="266"/>
+      <c r="B16" s="275"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="250"/>
-      <c r="H16" s="275"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="277" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="88"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
@@ -5083,14 +5115,14 @@
       <c r="BQ16" s="87"/>
     </row>
     <row r="17" spans="1:69">
-      <c r="A17" s="264"/>
-      <c r="B17" s="273"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="252"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="276"/>
+      <c r="A17" s="266"/>
+      <c r="B17" s="275"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="255"/>
+      <c r="H17" s="278"/>
       <c r="I17" s="88"/>
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
@@ -5099,10 +5131,10 @@
       <c r="N17" s="83"/>
       <c r="O17" s="86"/>
       <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
       <c r="U17" s="83"/>
       <c r="V17" s="86"/>
       <c r="W17" s="143"/>
@@ -5154,16 +5186,18 @@
       <c r="BQ17" s="87"/>
     </row>
     <row r="18" spans="1:69">
-      <c r="A18" s="264"/>
-      <c r="B18" s="273"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="249" t="s">
+      <c r="A18" s="266"/>
+      <c r="B18" s="275"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="250"/>
-      <c r="H18" s="275"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="277" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="88"/>
       <c r="J18" s="79"/>
       <c r="K18" s="82"/>
@@ -5227,14 +5261,14 @@
       <c r="BQ18" s="87"/>
     </row>
     <row r="19" spans="1:69">
-      <c r="A19" s="264"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="263"/>
-      <c r="F19" s="252"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="255"/>
+      <c r="H19" s="278"/>
       <c r="I19" s="88"/>
       <c r="J19" s="75"/>
       <c r="K19" s="82"/>
@@ -5244,9 +5278,9 @@
       <c r="O19" s="86"/>
       <c r="P19" s="82"/>
       <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
+      <c r="R19" s="226"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="226"/>
       <c r="U19" s="83"/>
       <c r="V19" s="86"/>
       <c r="W19" s="143"/>
@@ -5298,16 +5332,18 @@
       <c r="BQ19" s="87"/>
     </row>
     <row r="20" spans="1:69">
-      <c r="A20" s="264"/>
-      <c r="B20" s="273"/>
-      <c r="C20" s="274"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="263"/>
-      <c r="F20" s="249" t="s">
+      <c r="A20" s="266"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="250"/>
-      <c r="H20" s="275"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="277" t="s">
+        <v>72</v>
+      </c>
       <c r="I20" s="88"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
@@ -5371,14 +5407,14 @@
       <c r="BQ20" s="87"/>
     </row>
     <row r="21" spans="1:69">
-      <c r="A21" s="264"/>
-      <c r="B21" s="273"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="263"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="276"/>
+      <c r="A21" s="266"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="278"/>
       <c r="I21" s="74"/>
       <c r="J21" s="75"/>
       <c r="K21" s="75"/>
@@ -5390,7 +5426,7 @@
       <c r="Q21" s="75"/>
       <c r="R21" s="75"/>
       <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
+      <c r="T21" s="227"/>
       <c r="U21" s="76"/>
       <c r="V21" s="84"/>
       <c r="W21" s="126"/>
@@ -5442,16 +5478,18 @@
       <c r="BQ21" s="114"/>
     </row>
     <row r="22" spans="1:69">
-      <c r="A22" s="264"/>
-      <c r="B22" s="273"/>
-      <c r="C22" s="274"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="263"/>
-      <c r="F22" s="262" t="s">
+      <c r="A22" s="266"/>
+      <c r="B22" s="275"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="264" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="263"/>
-      <c r="H22" s="277"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="279" t="s">
+        <v>74</v>
+      </c>
       <c r="I22" s="88"/>
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
@@ -5515,14 +5553,14 @@
       <c r="BQ22" s="87"/>
     </row>
     <row r="23" spans="1:69">
-      <c r="A23" s="264"/>
-      <c r="B23" s="273"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="262"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="277"/>
+      <c r="A23" s="266"/>
+      <c r="B23" s="275"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="264"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="279"/>
       <c r="I23" s="203"/>
       <c r="J23" s="204"/>
       <c r="K23" s="204"/>
@@ -5586,20 +5624,20 @@
       <c r="BQ23" s="214"/>
     </row>
     <row r="24" spans="1:69">
-      <c r="A24" s="238">
+      <c r="A24" s="240">
         <v>8</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="258" t="s">
+      <c r="C24" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="260"/>
+      <c r="D24" s="260"/>
+      <c r="E24" s="260"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="262"/>
       <c r="I24" s="200"/>
       <c r="J24" s="201"/>
       <c r="K24" s="201"/>
@@ -5663,14 +5701,14 @@
       <c r="BQ24" s="56"/>
     </row>
     <row r="25" spans="1:69">
-      <c r="A25" s="264"/>
+      <c r="A25" s="266"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="259"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="261"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="261"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="263"/>
       <c r="I25" s="182"/>
       <c r="J25" s="155"/>
       <c r="K25" s="155"/>
@@ -5734,16 +5772,16 @@
       <c r="BQ25" s="60"/>
     </row>
     <row r="26" spans="1:69">
-      <c r="A26" s="264"/>
+      <c r="A26" s="266"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="265" t="s">
+      <c r="C26" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="266"/>
-      <c r="E26" s="266"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="267"/>
-      <c r="H26" s="256"/>
+      <c r="D26" s="268"/>
+      <c r="E26" s="268"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="269"/>
+      <c r="H26" s="258"/>
       <c r="I26" s="182"/>
       <c r="J26" s="155"/>
       <c r="K26" s="155"/>
@@ -5806,14 +5844,14 @@
       <c r="BQ26" s="60"/>
     </row>
     <row r="27" spans="1:69">
-      <c r="A27" s="264"/>
+      <c r="A27" s="266"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="257"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="259"/>
       <c r="I27" s="182"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
@@ -5877,18 +5915,18 @@
       <c r="BQ27" s="60"/>
     </row>
     <row r="28" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A28" s="264"/>
+      <c r="A28" s="266"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="268" t="s">
+      <c r="C28" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="281" t="s">
+      <c r="D28" s="270"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="283" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="282"/>
-      <c r="H28" s="256"/>
+      <c r="G28" s="284"/>
+      <c r="H28" s="258"/>
       <c r="I28" s="182"/>
       <c r="J28" s="155"/>
       <c r="K28" s="155"/>
@@ -5953,14 +5991,14 @@
       <c r="BQ28" s="60"/>
     </row>
     <row r="29" spans="1:69">
-      <c r="A29" s="264"/>
+      <c r="A29" s="266"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="257"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="271"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="259"/>
       <c r="I29" s="182"/>
       <c r="J29" s="155"/>
       <c r="K29" s="155"/>
@@ -6024,16 +6062,16 @@
       <c r="BQ29" s="60"/>
     </row>
     <row r="30" spans="1:69">
-      <c r="A30" s="264"/>
+      <c r="A30" s="266"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="281" t="s">
+      <c r="C30" s="271"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="283" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="282"/>
-      <c r="H30" s="256"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="258"/>
       <c r="I30" s="182"/>
       <c r="J30" s="155"/>
       <c r="K30" s="155"/>
@@ -6097,14 +6135,14 @@
       <c r="BQ30" s="60"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="A31" s="264"/>
+      <c r="A31" s="266"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="283"/>
-      <c r="G31" s="284"/>
-      <c r="H31" s="257"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="259"/>
       <c r="I31" s="182"/>
       <c r="J31" s="155"/>
       <c r="K31" s="155"/>
@@ -6168,16 +6206,16 @@
       <c r="BQ31" s="60"/>
     </row>
     <row r="32" spans="1:69">
-      <c r="A32" s="264"/>
+      <c r="A32" s="266"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="281" t="s">
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="283" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="282"/>
-      <c r="H32" s="256"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="258"/>
       <c r="I32" s="182"/>
       <c r="J32" s="155"/>
       <c r="K32" s="155"/>
@@ -6241,14 +6279,14 @@
       <c r="BQ32" s="60"/>
     </row>
     <row r="33" spans="1:69">
-      <c r="A33" s="264"/>
+      <c r="A33" s="266"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="284"/>
-      <c r="H33" s="257"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="259"/>
       <c r="I33" s="182"/>
       <c r="J33" s="155"/>
       <c r="K33" s="155"/>
@@ -6312,16 +6350,16 @@
       <c r="BQ33" s="60"/>
     </row>
     <row r="34" spans="1:69">
-      <c r="A34" s="264"/>
+      <c r="A34" s="266"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="285" t="s">
+      <c r="C34" s="271"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="287" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="286"/>
-      <c r="H34" s="271"/>
+      <c r="G34" s="288"/>
+      <c r="H34" s="273"/>
       <c r="I34" s="182"/>
       <c r="J34" s="155"/>
       <c r="K34" s="155"/>
@@ -6385,14 +6423,14 @@
       <c r="BQ34" s="60"/>
     </row>
     <row r="35" spans="1:69" ht="12.6" customHeight="1">
-      <c r="A35" s="264"/>
+      <c r="A35" s="266"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="283"/>
-      <c r="G35" s="284"/>
-      <c r="H35" s="257"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="286"/>
+      <c r="H35" s="259"/>
       <c r="I35" s="182"/>
       <c r="J35" s="155"/>
       <c r="K35" s="155"/>
@@ -6456,18 +6494,18 @@
       <c r="BQ35" s="60"/>
     </row>
     <row r="36" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A36" s="264"/>
+      <c r="A36" s="266"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="268" t="s">
+      <c r="C36" s="270" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="268"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="281" t="s">
+      <c r="D36" s="270"/>
+      <c r="E36" s="270"/>
+      <c r="F36" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="282"/>
-      <c r="H36" s="256"/>
+      <c r="G36" s="284"/>
+      <c r="H36" s="258"/>
       <c r="I36" s="182"/>
       <c r="J36" s="155"/>
       <c r="K36" s="155"/>
@@ -6531,14 +6569,14 @@
       <c r="BQ36" s="60"/>
     </row>
     <row r="37" spans="1:69">
-      <c r="A37" s="264"/>
+      <c r="A37" s="266"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="269"/>
-      <c r="D37" s="269"/>
-      <c r="E37" s="269"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="284"/>
-      <c r="H37" s="257"/>
+      <c r="C37" s="271"/>
+      <c r="D37" s="271"/>
+      <c r="E37" s="271"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="286"/>
+      <c r="H37" s="259"/>
       <c r="I37" s="182"/>
       <c r="J37" s="155"/>
       <c r="K37" s="155"/>
@@ -6602,16 +6640,16 @@
       <c r="BQ37" s="60"/>
     </row>
     <row r="38" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A38" s="264"/>
+      <c r="A38" s="266"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="269"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="269"/>
-      <c r="F38" s="281" t="s">
+      <c r="C38" s="271"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="283" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="282"/>
-      <c r="H38" s="256"/>
+      <c r="G38" s="284"/>
+      <c r="H38" s="258"/>
       <c r="I38" s="182"/>
       <c r="J38" s="155"/>
       <c r="K38" s="155"/>
@@ -6675,14 +6713,14 @@
       <c r="BQ38" s="60"/>
     </row>
     <row r="39" spans="1:69">
-      <c r="A39" s="264"/>
+      <c r="A39" s="266"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
-      <c r="E39" s="269"/>
-      <c r="F39" s="283"/>
-      <c r="G39" s="284"/>
-      <c r="H39" s="257"/>
+      <c r="C39" s="271"/>
+      <c r="D39" s="271"/>
+      <c r="E39" s="271"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="286"/>
+      <c r="H39" s="259"/>
       <c r="I39" s="182"/>
       <c r="J39" s="155"/>
       <c r="K39" s="155"/>
@@ -6746,16 +6784,16 @@
       <c r="BQ39" s="60"/>
     </row>
     <row r="40" spans="1:69">
-      <c r="A40" s="264"/>
+      <c r="A40" s="266"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="269"/>
-      <c r="D40" s="269"/>
-      <c r="E40" s="269"/>
-      <c r="F40" s="287" t="s">
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="271"/>
+      <c r="F40" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="288"/>
-      <c r="H40" s="256"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="258"/>
       <c r="I40" s="182"/>
       <c r="J40" s="155"/>
       <c r="K40" s="155"/>
@@ -6819,14 +6857,14 @@
       <c r="BQ40" s="60"/>
     </row>
     <row r="41" spans="1:69" ht="13.8" customHeight="1">
-      <c r="A41" s="264"/>
+      <c r="A41" s="266"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="270"/>
-      <c r="D41" s="270"/>
-      <c r="E41" s="270"/>
-      <c r="F41" s="289"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="257"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="272"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="292"/>
+      <c r="H41" s="259"/>
       <c r="I41" s="182"/>
       <c r="J41" s="155"/>
       <c r="K41" s="155"/>
@@ -6890,18 +6928,18 @@
       <c r="BQ41" s="60"/>
     </row>
     <row r="42" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A42" s="264"/>
+      <c r="A42" s="266"/>
       <c r="B42" s="30"/>
-      <c r="C42" s="291" t="s">
+      <c r="C42" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="291"/>
-      <c r="E42" s="291"/>
-      <c r="F42" s="281" t="s">
+      <c r="D42" s="293"/>
+      <c r="E42" s="293"/>
+      <c r="F42" s="283" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="282"/>
-      <c r="H42" s="256"/>
+      <c r="G42" s="284"/>
+      <c r="H42" s="258"/>
       <c r="I42" s="182"/>
       <c r="J42" s="155"/>
       <c r="K42" s="155"/>
@@ -6965,14 +7003,14 @@
       <c r="BQ42" s="60"/>
     </row>
     <row r="43" spans="1:69">
-      <c r="A43" s="264"/>
+      <c r="A43" s="266"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="269"/>
-      <c r="D43" s="269"/>
-      <c r="E43" s="269"/>
-      <c r="F43" s="283"/>
-      <c r="G43" s="284"/>
-      <c r="H43" s="257"/>
+      <c r="C43" s="271"/>
+      <c r="D43" s="271"/>
+      <c r="E43" s="271"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="286"/>
+      <c r="H43" s="259"/>
       <c r="I43" s="182"/>
       <c r="J43" s="155"/>
       <c r="K43" s="155"/>
@@ -7036,16 +7074,16 @@
       <c r="BQ43" s="60"/>
     </row>
     <row r="44" spans="1:69">
-      <c r="A44" s="264"/>
+      <c r="A44" s="266"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="269"/>
-      <c r="D44" s="269"/>
-      <c r="E44" s="269"/>
-      <c r="F44" s="281" t="s">
+      <c r="C44" s="271"/>
+      <c r="D44" s="271"/>
+      <c r="E44" s="271"/>
+      <c r="F44" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="282"/>
-      <c r="H44" s="256"/>
+      <c r="G44" s="284"/>
+      <c r="H44" s="258"/>
       <c r="I44" s="182"/>
       <c r="J44" s="155"/>
       <c r="K44" s="155"/>
@@ -7109,14 +7147,14 @@
       <c r="BQ44" s="60"/>
     </row>
     <row r="45" spans="1:69">
-      <c r="A45" s="264"/>
+      <c r="A45" s="266"/>
       <c r="B45" s="30"/>
-      <c r="C45" s="269"/>
-      <c r="D45" s="269"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="284"/>
-      <c r="H45" s="257"/>
+      <c r="C45" s="271"/>
+      <c r="D45" s="271"/>
+      <c r="E45" s="271"/>
+      <c r="F45" s="285"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="259"/>
       <c r="I45" s="182"/>
       <c r="J45" s="155"/>
       <c r="K45" s="155"/>
@@ -7180,16 +7218,16 @@
       <c r="BQ45" s="60"/>
     </row>
     <row r="46" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A46" s="264"/>
+      <c r="A46" s="266"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="269"/>
-      <c r="E46" s="269"/>
-      <c r="F46" s="285" t="s">
+      <c r="C46" s="271"/>
+      <c r="D46" s="271"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="286"/>
-      <c r="H46" s="271"/>
+      <c r="G46" s="288"/>
+      <c r="H46" s="273"/>
       <c r="I46" s="182"/>
       <c r="J46" s="155"/>
       <c r="K46" s="155"/>
@@ -7253,14 +7291,14 @@
       <c r="BQ46" s="60"/>
     </row>
     <row r="47" spans="1:69">
-      <c r="A47" s="239"/>
+      <c r="A47" s="241"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="292"/>
-      <c r="D47" s="292"/>
-      <c r="E47" s="292"/>
-      <c r="F47" s="283"/>
-      <c r="G47" s="284"/>
-      <c r="H47" s="257"/>
+      <c r="C47" s="294"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="294"/>
+      <c r="F47" s="285"/>
+      <c r="G47" s="286"/>
+      <c r="H47" s="259"/>
       <c r="I47" s="215"/>
       <c r="J47" s="90"/>
       <c r="K47" s="90"/>
@@ -7324,22 +7362,22 @@
       <c r="BQ47" s="61"/>
     </row>
     <row r="48" spans="1:69">
-      <c r="A48" s="238">
+      <c r="A48" s="240">
         <v>9</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="265" t="s">
+      <c r="C48" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="266"/>
-      <c r="E48" s="267"/>
-      <c r="F48" s="266" t="s">
+      <c r="D48" s="268"/>
+      <c r="E48" s="269"/>
+      <c r="F48" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="267"/>
-      <c r="H48" s="277"/>
+      <c r="G48" s="269"/>
+      <c r="H48" s="279"/>
       <c r="I48" s="45"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -7403,14 +7441,14 @@
       <c r="BQ48" s="56"/>
     </row>
     <row r="49" spans="1:69">
-      <c r="A49" s="264"/>
+      <c r="A49" s="266"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="278"/>
-      <c r="D49" s="279"/>
-      <c r="E49" s="280"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="276"/>
+      <c r="C49" s="280"/>
+      <c r="D49" s="281"/>
+      <c r="E49" s="282"/>
+      <c r="F49" s="246"/>
+      <c r="G49" s="247"/>
+      <c r="H49" s="278"/>
       <c r="I49" s="154"/>
       <c r="J49" s="155"/>
       <c r="K49" s="66"/>
@@ -7474,16 +7512,16 @@
       <c r="BQ49" s="114"/>
     </row>
     <row r="50" spans="1:69">
-      <c r="A50" s="264"/>
+      <c r="A50" s="266"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="278"/>
-      <c r="D50" s="279"/>
-      <c r="E50" s="280"/>
-      <c r="F50" s="266" t="s">
+      <c r="C50" s="280"/>
+      <c r="D50" s="281"/>
+      <c r="E50" s="282"/>
+      <c r="F50" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="267"/>
-      <c r="H50" s="277"/>
+      <c r="G50" s="269"/>
+      <c r="H50" s="279"/>
       <c r="I50" s="45"/>
       <c r="J50" s="10"/>
       <c r="K50" s="155"/>
@@ -7547,14 +7585,14 @@
       <c r="BQ50" s="162"/>
     </row>
     <row r="51" spans="1:69">
-      <c r="A51" s="264"/>
+      <c r="A51" s="266"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="278"/>
-      <c r="D51" s="279"/>
-      <c r="E51" s="280"/>
-      <c r="F51" s="244"/>
-      <c r="G51" s="245"/>
-      <c r="H51" s="276"/>
+      <c r="C51" s="280"/>
+      <c r="D51" s="281"/>
+      <c r="E51" s="282"/>
+      <c r="F51" s="246"/>
+      <c r="G51" s="247"/>
+      <c r="H51" s="278"/>
       <c r="I51" s="45"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -7618,16 +7656,16 @@
       <c r="BQ51" s="56"/>
     </row>
     <row r="52" spans="1:69">
-      <c r="A52" s="264"/>
+      <c r="A52" s="266"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="278"/>
-      <c r="D52" s="279"/>
-      <c r="E52" s="280"/>
-      <c r="F52" s="266" t="s">
+      <c r="C52" s="280"/>
+      <c r="D52" s="281"/>
+      <c r="E52" s="282"/>
+      <c r="F52" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="267"/>
-      <c r="H52" s="277"/>
+      <c r="G52" s="269"/>
+      <c r="H52" s="279"/>
       <c r="I52" s="46"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -7691,14 +7729,14 @@
       <c r="BQ52" s="60"/>
     </row>
     <row r="53" spans="1:69">
-      <c r="A53" s="264"/>
+      <c r="A53" s="266"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="278"/>
-      <c r="D53" s="279"/>
-      <c r="E53" s="280"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="276"/>
+      <c r="C53" s="280"/>
+      <c r="D53" s="281"/>
+      <c r="E53" s="282"/>
+      <c r="F53" s="246"/>
+      <c r="G53" s="247"/>
+      <c r="H53" s="278"/>
       <c r="I53" s="46"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -7762,16 +7800,16 @@
       <c r="BQ53" s="60"/>
     </row>
     <row r="54" spans="1:69">
-      <c r="A54" s="264"/>
+      <c r="A54" s="266"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="278"/>
-      <c r="D54" s="279"/>
-      <c r="E54" s="280"/>
-      <c r="F54" s="266" t="s">
+      <c r="C54" s="280"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="268" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="267"/>
-      <c r="H54" s="277"/>
+      <c r="G54" s="269"/>
+      <c r="H54" s="279"/>
       <c r="I54" s="45"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -7835,14 +7873,14 @@
       <c r="BQ54" s="56"/>
     </row>
     <row r="55" spans="1:69">
-      <c r="A55" s="264"/>
+      <c r="A55" s="266"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="278"/>
-      <c r="D55" s="279"/>
-      <c r="E55" s="280"/>
-      <c r="F55" s="244"/>
-      <c r="G55" s="245"/>
-      <c r="H55" s="276"/>
+      <c r="C55" s="280"/>
+      <c r="D55" s="281"/>
+      <c r="E55" s="282"/>
+      <c r="F55" s="246"/>
+      <c r="G55" s="247"/>
+      <c r="H55" s="278"/>
       <c r="I55" s="46"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -7906,16 +7944,16 @@
       <c r="BQ55" s="60"/>
     </row>
     <row r="56" spans="1:69">
-      <c r="A56" s="264"/>
+      <c r="A56" s="266"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="278"/>
-      <c r="D56" s="279"/>
-      <c r="E56" s="280"/>
-      <c r="F56" s="266" t="s">
+      <c r="C56" s="280"/>
+      <c r="D56" s="281"/>
+      <c r="E56" s="282"/>
+      <c r="F56" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="267"/>
-      <c r="H56" s="277"/>
+      <c r="G56" s="269"/>
+      <c r="H56" s="279"/>
       <c r="I56" s="45"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -7979,14 +8017,14 @@
       <c r="BQ56" s="56"/>
     </row>
     <row r="57" spans="1:69">
-      <c r="A57" s="264"/>
+      <c r="A57" s="266"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="278"/>
-      <c r="D57" s="279"/>
-      <c r="E57" s="280"/>
-      <c r="F57" s="244"/>
-      <c r="G57" s="245"/>
-      <c r="H57" s="276"/>
+      <c r="C57" s="280"/>
+      <c r="D57" s="281"/>
+      <c r="E57" s="282"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="247"/>
+      <c r="H57" s="278"/>
       <c r="I57" s="46"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -8050,16 +8088,16 @@
       <c r="BQ57" s="60"/>
     </row>
     <row r="58" spans="1:69">
-      <c r="A58" s="264"/>
+      <c r="A58" s="266"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="278"/>
-      <c r="D58" s="279"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="293" t="s">
+      <c r="C58" s="280"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="282"/>
+      <c r="F58" s="295" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="288"/>
-      <c r="H58" s="277"/>
+      <c r="G58" s="290"/>
+      <c r="H58" s="279"/>
       <c r="I58" s="46"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -8123,14 +8161,14 @@
       <c r="BQ58" s="60"/>
     </row>
     <row r="59" spans="1:69">
-      <c r="A59" s="264"/>
+      <c r="A59" s="266"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="278"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="294"/>
-      <c r="G59" s="290"/>
-      <c r="H59" s="276"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="281"/>
+      <c r="E59" s="282"/>
+      <c r="F59" s="296"/>
+      <c r="G59" s="292"/>
+      <c r="H59" s="278"/>
       <c r="I59" s="46"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -8194,16 +8232,16 @@
       <c r="BQ59" s="60"/>
     </row>
     <row r="60" spans="1:69">
-      <c r="A60" s="264"/>
+      <c r="A60" s="266"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="278"/>
-      <c r="D60" s="279"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="293" t="s">
+      <c r="C60" s="280"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="282"/>
+      <c r="F60" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="G60" s="288"/>
-      <c r="H60" s="277"/>
+      <c r="G60" s="290"/>
+      <c r="H60" s="279"/>
       <c r="I60" s="46"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -8267,14 +8305,14 @@
       <c r="BQ60" s="60"/>
     </row>
     <row r="61" spans="1:69">
-      <c r="A61" s="264"/>
+      <c r="A61" s="266"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="278"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="280"/>
-      <c r="F61" s="294"/>
-      <c r="G61" s="290"/>
-      <c r="H61" s="276"/>
+      <c r="C61" s="280"/>
+      <c r="D61" s="281"/>
+      <c r="E61" s="282"/>
+      <c r="F61" s="296"/>
+      <c r="G61" s="292"/>
+      <c r="H61" s="278"/>
       <c r="I61" s="45"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -8338,16 +8376,16 @@
       <c r="BQ61" s="56"/>
     </row>
     <row r="62" spans="1:69">
-      <c r="A62" s="264"/>
+      <c r="A62" s="266"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="278"/>
-      <c r="D62" s="279"/>
-      <c r="E62" s="280"/>
-      <c r="F62" s="266" t="s">
+      <c r="C62" s="280"/>
+      <c r="D62" s="281"/>
+      <c r="E62" s="282"/>
+      <c r="F62" s="268" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="267"/>
-      <c r="H62" s="277"/>
+      <c r="G62" s="269"/>
+      <c r="H62" s="279"/>
       <c r="I62" s="46"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -8411,14 +8449,14 @@
       <c r="BQ62" s="60"/>
     </row>
     <row r="63" spans="1:69">
-      <c r="A63" s="264"/>
+      <c r="A63" s="266"/>
       <c r="B63" s="30"/>
-      <c r="C63" s="278"/>
-      <c r="D63" s="279"/>
-      <c r="E63" s="280"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="245"/>
-      <c r="H63" s="276"/>
+      <c r="C63" s="280"/>
+      <c r="D63" s="281"/>
+      <c r="E63" s="282"/>
+      <c r="F63" s="246"/>
+      <c r="G63" s="247"/>
+      <c r="H63" s="278"/>
       <c r="I63" s="46"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -8482,16 +8520,16 @@
       <c r="BQ63" s="60"/>
     </row>
     <row r="64" spans="1:69">
-      <c r="A64" s="264"/>
+      <c r="A64" s="266"/>
       <c r="B64" s="30"/>
-      <c r="C64" s="278"/>
-      <c r="D64" s="279"/>
-      <c r="E64" s="280"/>
-      <c r="F64" s="266" t="s">
+      <c r="C64" s="280"/>
+      <c r="D64" s="281"/>
+      <c r="E64" s="282"/>
+      <c r="F64" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="G64" s="267"/>
-      <c r="H64" s="277"/>
+      <c r="G64" s="269"/>
+      <c r="H64" s="279"/>
       <c r="I64" s="46"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -8555,14 +8593,14 @@
       <c r="BQ64" s="60"/>
     </row>
     <row r="65" spans="1:69">
-      <c r="A65" s="264"/>
+      <c r="A65" s="266"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="278"/>
-      <c r="D65" s="279"/>
-      <c r="E65" s="280"/>
-      <c r="F65" s="244"/>
-      <c r="G65" s="245"/>
-      <c r="H65" s="276"/>
+      <c r="C65" s="280"/>
+      <c r="D65" s="281"/>
+      <c r="E65" s="282"/>
+      <c r="F65" s="246"/>
+      <c r="G65" s="247"/>
+      <c r="H65" s="278"/>
       <c r="I65" s="46"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -8626,16 +8664,16 @@
       <c r="BQ65" s="60"/>
     </row>
     <row r="66" spans="1:69">
-      <c r="A66" s="264"/>
+      <c r="A66" s="266"/>
       <c r="B66" s="30"/>
-      <c r="C66" s="278"/>
-      <c r="D66" s="279"/>
-      <c r="E66" s="280"/>
-      <c r="F66" s="266" t="s">
+      <c r="C66" s="280"/>
+      <c r="D66" s="281"/>
+      <c r="E66" s="282"/>
+      <c r="F66" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="G66" s="267"/>
-      <c r="H66" s="277"/>
+      <c r="G66" s="269"/>
+      <c r="H66" s="279"/>
       <c r="I66" s="46"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -8699,14 +8737,14 @@
       <c r="BQ66" s="60"/>
     </row>
     <row r="67" spans="1:69">
-      <c r="A67" s="264"/>
+      <c r="A67" s="266"/>
       <c r="B67" s="30"/>
-      <c r="C67" s="278"/>
-      <c r="D67" s="279"/>
-      <c r="E67" s="280"/>
-      <c r="F67" s="244"/>
-      <c r="G67" s="245"/>
-      <c r="H67" s="276"/>
+      <c r="C67" s="280"/>
+      <c r="D67" s="281"/>
+      <c r="E67" s="282"/>
+      <c r="F67" s="246"/>
+      <c r="G67" s="247"/>
+      <c r="H67" s="278"/>
       <c r="I67" s="46"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -8770,16 +8808,16 @@
       <c r="BQ67" s="60"/>
     </row>
     <row r="68" spans="1:69">
-      <c r="A68" s="264"/>
+      <c r="A68" s="266"/>
       <c r="B68" s="30"/>
-      <c r="C68" s="278"/>
-      <c r="D68" s="279"/>
-      <c r="E68" s="280"/>
-      <c r="F68" s="266" t="s">
+      <c r="C68" s="280"/>
+      <c r="D68" s="281"/>
+      <c r="E68" s="282"/>
+      <c r="F68" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="267"/>
-      <c r="H68" s="277"/>
+      <c r="G68" s="269"/>
+      <c r="H68" s="279"/>
       <c r="I68" s="46"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -8843,14 +8881,14 @@
       <c r="BQ68" s="60"/>
     </row>
     <row r="69" spans="1:69">
-      <c r="A69" s="264"/>
+      <c r="A69" s="266"/>
       <c r="B69" s="30"/>
-      <c r="C69" s="278"/>
-      <c r="D69" s="279"/>
-      <c r="E69" s="280"/>
-      <c r="F69" s="244"/>
-      <c r="G69" s="245"/>
-      <c r="H69" s="276"/>
+      <c r="C69" s="280"/>
+      <c r="D69" s="281"/>
+      <c r="E69" s="282"/>
+      <c r="F69" s="246"/>
+      <c r="G69" s="247"/>
+      <c r="H69" s="278"/>
       <c r="I69" s="46"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -8914,16 +8952,16 @@
       <c r="BQ69" s="60"/>
     </row>
     <row r="70" spans="1:69">
-      <c r="A70" s="264"/>
+      <c r="A70" s="266"/>
       <c r="B70" s="30"/>
-      <c r="C70" s="278"/>
-      <c r="D70" s="279"/>
-      <c r="E70" s="280"/>
-      <c r="F70" s="266" t="s">
+      <c r="C70" s="280"/>
+      <c r="D70" s="281"/>
+      <c r="E70" s="282"/>
+      <c r="F70" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="G70" s="267"/>
-      <c r="H70" s="277"/>
+      <c r="G70" s="269"/>
+      <c r="H70" s="279"/>
       <c r="I70" s="46"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -8987,14 +9025,14 @@
       <c r="BQ70" s="60"/>
     </row>
     <row r="71" spans="1:69">
-      <c r="A71" s="264"/>
+      <c r="A71" s="266"/>
       <c r="B71" s="30"/>
-      <c r="C71" s="278"/>
-      <c r="D71" s="279"/>
-      <c r="E71" s="280"/>
-      <c r="F71" s="244"/>
-      <c r="G71" s="245"/>
-      <c r="H71" s="276"/>
+      <c r="C71" s="280"/>
+      <c r="D71" s="281"/>
+      <c r="E71" s="282"/>
+      <c r="F71" s="246"/>
+      <c r="G71" s="247"/>
+      <c r="H71" s="278"/>
       <c r="I71" s="46"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -9058,16 +9096,16 @@
       <c r="BQ71" s="60"/>
     </row>
     <row r="72" spans="1:69">
-      <c r="A72" s="264"/>
+      <c r="A72" s="266"/>
       <c r="B72" s="30"/>
-      <c r="C72" s="278"/>
-      <c r="D72" s="279"/>
-      <c r="E72" s="280"/>
-      <c r="F72" s="266" t="s">
+      <c r="C72" s="280"/>
+      <c r="D72" s="281"/>
+      <c r="E72" s="282"/>
+      <c r="F72" s="268" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="267"/>
-      <c r="H72" s="277"/>
+      <c r="G72" s="269"/>
+      <c r="H72" s="279"/>
       <c r="I72" s="46"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -9131,14 +9169,14 @@
       <c r="BQ72" s="60"/>
     </row>
     <row r="73" spans="1:69">
-      <c r="A73" s="264"/>
+      <c r="A73" s="266"/>
       <c r="B73" s="30"/>
-      <c r="C73" s="278"/>
-      <c r="D73" s="279"/>
-      <c r="E73" s="280"/>
-      <c r="F73" s="244"/>
-      <c r="G73" s="245"/>
-      <c r="H73" s="276"/>
+      <c r="C73" s="280"/>
+      <c r="D73" s="281"/>
+      <c r="E73" s="282"/>
+      <c r="F73" s="246"/>
+      <c r="G73" s="247"/>
+      <c r="H73" s="278"/>
       <c r="I73" s="46"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -9202,16 +9240,16 @@
       <c r="BQ73" s="60"/>
     </row>
     <row r="74" spans="1:69">
-      <c r="A74" s="264"/>
+      <c r="A74" s="266"/>
       <c r="B74" s="30"/>
-      <c r="C74" s="278"/>
-      <c r="D74" s="279"/>
-      <c r="E74" s="280"/>
-      <c r="F74" s="266" t="s">
+      <c r="C74" s="280"/>
+      <c r="D74" s="281"/>
+      <c r="E74" s="282"/>
+      <c r="F74" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="G74" s="267"/>
-      <c r="H74" s="277"/>
+      <c r="G74" s="269"/>
+      <c r="H74" s="279"/>
       <c r="I74" s="46"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -9275,14 +9313,14 @@
       <c r="BQ74" s="60"/>
     </row>
     <row r="75" spans="1:69">
-      <c r="A75" s="264"/>
+      <c r="A75" s="266"/>
       <c r="B75" s="30"/>
-      <c r="C75" s="278"/>
-      <c r="D75" s="279"/>
-      <c r="E75" s="280"/>
-      <c r="F75" s="244"/>
-      <c r="G75" s="245"/>
-      <c r="H75" s="276"/>
+      <c r="C75" s="280"/>
+      <c r="D75" s="281"/>
+      <c r="E75" s="282"/>
+      <c r="F75" s="246"/>
+      <c r="G75" s="247"/>
+      <c r="H75" s="278"/>
       <c r="I75" s="46"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -9346,16 +9384,16 @@
       <c r="BQ75" s="60"/>
     </row>
     <row r="76" spans="1:69">
-      <c r="A76" s="264"/>
+      <c r="A76" s="266"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="278"/>
-      <c r="D76" s="279"/>
-      <c r="E76" s="280"/>
-      <c r="F76" s="279" t="s">
+      <c r="C76" s="280"/>
+      <c r="D76" s="281"/>
+      <c r="E76" s="282"/>
+      <c r="F76" s="281" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="280"/>
-      <c r="H76" s="277"/>
+      <c r="G76" s="282"/>
+      <c r="H76" s="279"/>
       <c r="I76" s="65"/>
       <c r="J76" s="66"/>
       <c r="K76" s="66"/>
@@ -9419,14 +9457,14 @@
       <c r="BQ76" s="69"/>
     </row>
     <row r="77" spans="1:69">
-      <c r="A77" s="239"/>
+      <c r="A77" s="241"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="243"/>
-      <c r="D77" s="244"/>
-      <c r="E77" s="245"/>
-      <c r="F77" s="244"/>
-      <c r="G77" s="245"/>
-      <c r="H77" s="276"/>
+      <c r="C77" s="245"/>
+      <c r="D77" s="246"/>
+      <c r="E77" s="247"/>
+      <c r="F77" s="246"/>
+      <c r="G77" s="247"/>
+      <c r="H77" s="278"/>
       <c r="I77" s="47"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
@@ -9490,22 +9528,22 @@
       <c r="BQ77" s="57"/>
     </row>
     <row r="78" spans="1:69">
-      <c r="A78" s="238">
+      <c r="A78" s="240">
         <v>10</v>
       </c>
       <c r="B78" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="265" t="s">
+      <c r="C78" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="266"/>
-      <c r="E78" s="267"/>
-      <c r="F78" s="266" t="s">
+      <c r="D78" s="268"/>
+      <c r="E78" s="269"/>
+      <c r="F78" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="G78" s="267"/>
-      <c r="H78" s="297"/>
+      <c r="G78" s="269"/>
+      <c r="H78" s="299"/>
       <c r="I78" s="33"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -9569,14 +9607,14 @@
       <c r="BQ78" s="111"/>
     </row>
     <row r="79" spans="1:69">
-      <c r="A79" s="264"/>
+      <c r="A79" s="266"/>
       <c r="B79" s="113"/>
-      <c r="C79" s="278"/>
-      <c r="D79" s="279"/>
-      <c r="E79" s="280"/>
-      <c r="F79" s="244"/>
-      <c r="G79" s="245"/>
-      <c r="H79" s="298"/>
+      <c r="C79" s="280"/>
+      <c r="D79" s="281"/>
+      <c r="E79" s="282"/>
+      <c r="F79" s="246"/>
+      <c r="G79" s="247"/>
+      <c r="H79" s="300"/>
       <c r="I79" s="46"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -9640,16 +9678,16 @@
       <c r="BQ79" s="165"/>
     </row>
     <row r="80" spans="1:69">
-      <c r="A80" s="264"/>
+      <c r="A80" s="266"/>
       <c r="B80" s="113"/>
-      <c r="C80" s="278"/>
-      <c r="D80" s="279"/>
-      <c r="E80" s="280"/>
-      <c r="F80" s="266" t="s">
+      <c r="C80" s="280"/>
+      <c r="D80" s="281"/>
+      <c r="E80" s="282"/>
+      <c r="F80" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="267"/>
-      <c r="H80" s="295"/>
+      <c r="G80" s="269"/>
+      <c r="H80" s="297"/>
       <c r="I80" s="45"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -9713,14 +9751,14 @@
       <c r="BQ80" s="176"/>
     </row>
     <row r="81" spans="1:69">
-      <c r="A81" s="264"/>
+      <c r="A81" s="266"/>
       <c r="B81" s="113"/>
-      <c r="C81" s="278"/>
-      <c r="D81" s="279"/>
-      <c r="E81" s="280"/>
-      <c r="F81" s="244"/>
-      <c r="G81" s="245"/>
-      <c r="H81" s="296"/>
+      <c r="C81" s="280"/>
+      <c r="D81" s="281"/>
+      <c r="E81" s="282"/>
+      <c r="F81" s="246"/>
+      <c r="G81" s="247"/>
+      <c r="H81" s="298"/>
       <c r="I81" s="46"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -9784,16 +9822,16 @@
       <c r="BQ81" s="165"/>
     </row>
     <row r="82" spans="1:69">
-      <c r="A82" s="264"/>
+      <c r="A82" s="266"/>
       <c r="B82" s="113"/>
-      <c r="C82" s="278"/>
-      <c r="D82" s="279"/>
-      <c r="E82" s="280"/>
-      <c r="F82" s="266" t="s">
+      <c r="C82" s="280"/>
+      <c r="D82" s="281"/>
+      <c r="E82" s="282"/>
+      <c r="F82" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="G82" s="267"/>
-      <c r="H82" s="297"/>
+      <c r="G82" s="269"/>
+      <c r="H82" s="299"/>
       <c r="I82" s="46"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -9862,9 +9900,9 @@
       <c r="C83" s="123"/>
       <c r="D83" s="131"/>
       <c r="E83" s="166"/>
-      <c r="F83" s="244"/>
-      <c r="G83" s="245"/>
-      <c r="H83" s="298"/>
+      <c r="F83" s="246"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="300"/>
       <c r="I83" s="46"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -9933,11 +9971,11 @@
       <c r="C84" s="123"/>
       <c r="D84" s="131"/>
       <c r="E84" s="166"/>
-      <c r="F84" s="266" t="s">
+      <c r="F84" s="268" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="267"/>
-      <c r="H84" s="297"/>
+      <c r="G84" s="269"/>
+      <c r="H84" s="299"/>
       <c r="I84" s="46"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -10006,9 +10044,9 @@
       <c r="C85" s="123"/>
       <c r="D85" s="131"/>
       <c r="E85" s="166"/>
-      <c r="F85" s="244"/>
-      <c r="G85" s="245"/>
-      <c r="H85" s="298"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="247"/>
+      <c r="H85" s="300"/>
       <c r="I85" s="46"/>
       <c r="J85" s="155"/>
       <c r="K85" s="155"/>
@@ -10077,11 +10115,11 @@
       <c r="C86" s="123"/>
       <c r="D86" s="131"/>
       <c r="E86" s="166"/>
-      <c r="F86" s="266" t="s">
+      <c r="F86" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="G86" s="267"/>
-      <c r="H86" s="297"/>
+      <c r="G86" s="269"/>
+      <c r="H86" s="299"/>
       <c r="I86" s="46"/>
       <c r="J86" s="155"/>
       <c r="K86" s="155"/>
@@ -10150,9 +10188,9 @@
       <c r="C87" s="123"/>
       <c r="D87" s="131"/>
       <c r="E87" s="166"/>
-      <c r="F87" s="244"/>
-      <c r="G87" s="245"/>
-      <c r="H87" s="298"/>
+      <c r="F87" s="246"/>
+      <c r="G87" s="247"/>
+      <c r="H87" s="300"/>
       <c r="I87" s="46"/>
       <c r="J87" s="155"/>
       <c r="K87" s="155"/>
@@ -10221,11 +10259,11 @@
       <c r="C88" s="123"/>
       <c r="D88" s="131"/>
       <c r="E88" s="166"/>
-      <c r="F88" s="293" t="s">
+      <c r="F88" s="295" t="s">
         <v>64</v>
       </c>
-      <c r="G88" s="288"/>
-      <c r="H88" s="297"/>
+      <c r="G88" s="290"/>
+      <c r="H88" s="299"/>
       <c r="I88" s="46"/>
       <c r="J88" s="155"/>
       <c r="K88" s="155"/>
@@ -10294,9 +10332,9 @@
       <c r="C89" s="123"/>
       <c r="D89" s="131"/>
       <c r="E89" s="166"/>
-      <c r="F89" s="294"/>
-      <c r="G89" s="290"/>
-      <c r="H89" s="298"/>
+      <c r="F89" s="296"/>
+      <c r="G89" s="292"/>
+      <c r="H89" s="300"/>
       <c r="I89" s="46"/>
       <c r="J89" s="155"/>
       <c r="K89" s="155"/>
@@ -10365,11 +10403,11 @@
       <c r="C90" s="123"/>
       <c r="D90" s="131"/>
       <c r="E90" s="166"/>
-      <c r="F90" s="293" t="s">
+      <c r="F90" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="G90" s="288"/>
-      <c r="H90" s="297"/>
+      <c r="G90" s="290"/>
+      <c r="H90" s="299"/>
       <c r="I90" s="46"/>
       <c r="J90" s="155"/>
       <c r="K90" s="155"/>
@@ -10438,9 +10476,9 @@
       <c r="C91" s="123"/>
       <c r="D91" s="131"/>
       <c r="E91" s="166"/>
-      <c r="F91" s="294"/>
-      <c r="G91" s="290"/>
-      <c r="H91" s="298"/>
+      <c r="F91" s="296"/>
+      <c r="G91" s="292"/>
+      <c r="H91" s="300"/>
       <c r="I91" s="46"/>
       <c r="J91" s="155"/>
       <c r="K91" s="155"/>
@@ -10509,11 +10547,11 @@
       <c r="C92" s="123"/>
       <c r="D92" s="131"/>
       <c r="E92" s="166"/>
-      <c r="F92" s="266" t="s">
+      <c r="F92" s="268" t="s">
         <v>51</v>
       </c>
-      <c r="G92" s="267"/>
-      <c r="H92" s="297"/>
+      <c r="G92" s="269"/>
+      <c r="H92" s="299"/>
       <c r="I92" s="46"/>
       <c r="J92" s="155"/>
       <c r="K92" s="155"/>
@@ -10582,9 +10620,9 @@
       <c r="C93" s="123"/>
       <c r="D93" s="131"/>
       <c r="E93" s="166"/>
-      <c r="F93" s="244"/>
-      <c r="G93" s="245"/>
-      <c r="H93" s="298"/>
+      <c r="F93" s="246"/>
+      <c r="G93" s="247"/>
+      <c r="H93" s="300"/>
       <c r="I93" s="46"/>
       <c r="J93" s="155"/>
       <c r="K93" s="155"/>
@@ -10653,11 +10691,11 @@
       <c r="C94" s="123"/>
       <c r="D94" s="131"/>
       <c r="E94" s="166"/>
-      <c r="F94" s="266" t="s">
+      <c r="F94" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="G94" s="267"/>
-      <c r="H94" s="297"/>
+      <c r="G94" s="269"/>
+      <c r="H94" s="299"/>
       <c r="I94" s="46"/>
       <c r="J94" s="155"/>
       <c r="K94" s="155"/>
@@ -10726,9 +10764,9 @@
       <c r="C95" s="123"/>
       <c r="D95" s="131"/>
       <c r="E95" s="166"/>
-      <c r="F95" s="244"/>
-      <c r="G95" s="245"/>
-      <c r="H95" s="298"/>
+      <c r="F95" s="246"/>
+      <c r="G95" s="247"/>
+      <c r="H95" s="300"/>
       <c r="I95" s="46"/>
       <c r="J95" s="155"/>
       <c r="K95" s="155"/>
@@ -10797,11 +10835,11 @@
       <c r="C96" s="123"/>
       <c r="D96" s="131"/>
       <c r="E96" s="166"/>
-      <c r="F96" s="266" t="s">
+      <c r="F96" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="G96" s="267"/>
-      <c r="H96" s="297"/>
+      <c r="G96" s="269"/>
+      <c r="H96" s="299"/>
       <c r="I96" s="46"/>
       <c r="J96" s="155"/>
       <c r="K96" s="155"/>
@@ -10870,9 +10908,9 @@
       <c r="C97" s="123"/>
       <c r="D97" s="131"/>
       <c r="E97" s="166"/>
-      <c r="F97" s="244"/>
-      <c r="G97" s="245"/>
-      <c r="H97" s="298"/>
+      <c r="F97" s="246"/>
+      <c r="G97" s="247"/>
+      <c r="H97" s="300"/>
       <c r="I97" s="46"/>
       <c r="J97" s="155"/>
       <c r="K97" s="155"/>
@@ -10941,11 +10979,11 @@
       <c r="C98" s="123"/>
       <c r="D98" s="131"/>
       <c r="E98" s="166"/>
-      <c r="F98" s="266" t="s">
+      <c r="F98" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="267"/>
-      <c r="H98" s="297"/>
+      <c r="G98" s="269"/>
+      <c r="H98" s="299"/>
       <c r="I98" s="46"/>
       <c r="J98" s="155"/>
       <c r="K98" s="155"/>
@@ -11014,9 +11052,9 @@
       <c r="C99" s="123"/>
       <c r="D99" s="131"/>
       <c r="E99" s="166"/>
-      <c r="F99" s="244"/>
-      <c r="G99" s="245"/>
-      <c r="H99" s="298"/>
+      <c r="F99" s="246"/>
+      <c r="G99" s="247"/>
+      <c r="H99" s="300"/>
       <c r="I99" s="46"/>
       <c r="J99" s="155"/>
       <c r="K99" s="155"/>
@@ -11085,11 +11123,11 @@
       <c r="C100" s="123"/>
       <c r="D100" s="131"/>
       <c r="E100" s="166"/>
-      <c r="F100" s="266" t="s">
+      <c r="F100" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="G100" s="267"/>
-      <c r="H100" s="297"/>
+      <c r="G100" s="269"/>
+      <c r="H100" s="299"/>
       <c r="I100" s="46"/>
       <c r="J100" s="155"/>
       <c r="K100" s="155"/>
@@ -11158,9 +11196,9 @@
       <c r="C101" s="123"/>
       <c r="D101" s="131"/>
       <c r="E101" s="166"/>
-      <c r="F101" s="244"/>
-      <c r="G101" s="245"/>
-      <c r="H101" s="298"/>
+      <c r="F101" s="246"/>
+      <c r="G101" s="247"/>
+      <c r="H101" s="300"/>
       <c r="I101" s="46"/>
       <c r="J101" s="155"/>
       <c r="K101" s="155"/>
@@ -11229,11 +11267,11 @@
       <c r="C102" s="123"/>
       <c r="D102" s="131"/>
       <c r="E102" s="166"/>
-      <c r="F102" s="266" t="s">
+      <c r="F102" s="268" t="s">
         <v>59</v>
       </c>
-      <c r="G102" s="267"/>
-      <c r="H102" s="297"/>
+      <c r="G102" s="269"/>
+      <c r="H102" s="299"/>
       <c r="I102" s="46"/>
       <c r="J102" s="155"/>
       <c r="K102" s="155"/>
@@ -11302,9 +11340,9 @@
       <c r="C103" s="123"/>
       <c r="D103" s="131"/>
       <c r="E103" s="166"/>
-      <c r="F103" s="244"/>
-      <c r="G103" s="245"/>
-      <c r="H103" s="298"/>
+      <c r="F103" s="246"/>
+      <c r="G103" s="247"/>
+      <c r="H103" s="300"/>
       <c r="I103" s="46"/>
       <c r="J103" s="155"/>
       <c r="K103" s="155"/>
@@ -11373,11 +11411,11 @@
       <c r="C104" s="123"/>
       <c r="D104" s="131"/>
       <c r="E104" s="166"/>
-      <c r="F104" s="266" t="s">
+      <c r="F104" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="G104" s="267"/>
-      <c r="H104" s="297"/>
+      <c r="G104" s="269"/>
+      <c r="H104" s="299"/>
       <c r="I104" s="46"/>
       <c r="J104" s="155"/>
       <c r="K104" s="155"/>
@@ -11446,9 +11484,9 @@
       <c r="C105" s="123"/>
       <c r="D105" s="131"/>
       <c r="E105" s="166"/>
-      <c r="F105" s="244"/>
-      <c r="G105" s="245"/>
-      <c r="H105" s="298"/>
+      <c r="F105" s="246"/>
+      <c r="G105" s="247"/>
+      <c r="H105" s="300"/>
       <c r="I105" s="65"/>
       <c r="J105" s="155"/>
       <c r="K105" s="155"/>
@@ -11517,11 +11555,11 @@
       <c r="C106" s="123"/>
       <c r="D106" s="131"/>
       <c r="E106" s="166"/>
-      <c r="F106" s="266" t="s">
+      <c r="F106" s="268" t="s">
         <v>60</v>
       </c>
-      <c r="G106" s="267"/>
-      <c r="H106" s="297"/>
+      <c r="G106" s="269"/>
+      <c r="H106" s="299"/>
       <c r="I106" s="45"/>
       <c r="J106" s="155"/>
       <c r="K106" s="155"/>
@@ -11590,9 +11628,9 @@
       <c r="C107" s="120"/>
       <c r="D107" s="132"/>
       <c r="E107" s="167"/>
-      <c r="F107" s="300"/>
-      <c r="G107" s="301"/>
-      <c r="H107" s="299"/>
+      <c r="F107" s="302"/>
+      <c r="G107" s="303"/>
+      <c r="H107" s="301"/>
       <c r="I107" s="168"/>
       <c r="J107" s="169"/>
       <c r="K107" s="169"/>
@@ -11861,92 +11899,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="229" t="s">
+      <c r="B1" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="321" t="s">
+      <c r="C1" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="322"/>
-      <c r="E1" s="232" t="s">
+      <c r="D1" s="324"/>
+      <c r="E1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="235">
+      <c r="F1" s="237">
         <v>45901</v>
       </c>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="235">
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
+      <c r="AJ1" s="237">
         <v>45931</v>
       </c>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="236"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="236"/>
-      <c r="AZ1" s="236"/>
-      <c r="BA1" s="236"/>
-      <c r="BB1" s="236"/>
-      <c r="BC1" s="236"/>
-      <c r="BD1" s="236"/>
-      <c r="BE1" s="236"/>
-      <c r="BF1" s="236"/>
-      <c r="BG1" s="236"/>
-      <c r="BH1" s="236"/>
-      <c r="BI1" s="236"/>
-      <c r="BJ1" s="236"/>
-      <c r="BK1" s="236"/>
-      <c r="BL1" s="236"/>
-      <c r="BM1" s="236"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="238"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="238"/>
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="238"/>
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="238"/>
+      <c r="AV1" s="238"/>
+      <c r="AW1" s="238"/>
+      <c r="AX1" s="238"/>
+      <c r="AY1" s="238"/>
+      <c r="AZ1" s="238"/>
+      <c r="BA1" s="238"/>
+      <c r="BB1" s="238"/>
+      <c r="BC1" s="238"/>
+      <c r="BD1" s="238"/>
+      <c r="BE1" s="238"/>
+      <c r="BF1" s="238"/>
+      <c r="BG1" s="238"/>
+      <c r="BH1" s="238"/>
+      <c r="BI1" s="238"/>
+      <c r="BJ1" s="238"/>
+      <c r="BK1" s="238"/>
+      <c r="BL1" s="238"/>
+      <c r="BM1" s="238"/>
       <c r="BN1" s="63"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="227"/>
-      <c r="B2" s="230"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="233"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="235"/>
       <c r="F2" s="42">
         <v>42156</v>
       </c>
@@ -12133,11 +12171,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="231"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="234"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="236"/>
       <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
@@ -12324,17 +12362,17 @@
       <c r="BO3" s="41"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="238">
+      <c r="A4" s="240">
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="242"/>
-      <c r="E4" s="246"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="45"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -12398,11 +12436,11 @@
       <c r="BN4" s="56"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="239"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="247"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="249"/>
       <c r="F5" s="47"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -12466,17 +12504,17 @@
       <c r="BN5" s="57"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="238">
+      <c r="A6" s="240">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="248" t="s">
+      <c r="C6" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="254"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="256"/>
       <c r="F6" s="33"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -12540,11 +12578,11 @@
       <c r="BN6" s="58"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="239"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="255"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="257"/>
       <c r="F7" s="48"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -12608,17 +12646,17 @@
       <c r="BN7" s="59"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="238">
+      <c r="A8" s="240">
         <v>3</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="248" t="s">
+      <c r="C8" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="250"/>
-      <c r="E8" s="254"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="256"/>
       <c r="F8" s="33"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -12682,11 +12720,11 @@
       <c r="BN8" s="58"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="239"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="255"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="257"/>
       <c r="F9" s="48"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -12750,17 +12788,17 @@
       <c r="BN9" s="59"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="238">
+      <c r="A10" s="240">
         <v>4</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="248" t="s">
+      <c r="C10" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="250"/>
-      <c r="E10" s="254"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="256"/>
       <c r="F10" s="33"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -12824,11 +12862,11 @@
       <c r="BN10" s="58"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="239"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="255"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="257"/>
       <c r="F11" s="48"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
@@ -12892,17 +12930,17 @@
       <c r="BN11" s="59"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="238">
+      <c r="A12" s="240">
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="248" t="s">
+      <c r="C12" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="250"/>
-      <c r="E12" s="254"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="256"/>
       <c r="F12" s="33"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -12966,11 +13004,11 @@
       <c r="BN12" s="58"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="239"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="255"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="257"/>
       <c r="F13" s="48"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -13040,11 +13078,11 @@
       <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="248" t="s">
+      <c r="C14" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="250"/>
-      <c r="E14" s="275"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="277"/>
       <c r="F14" s="70"/>
       <c r="G14" s="71"/>
       <c r="H14" s="71"/>
@@ -13113,7 +13151,7 @@
       <c r="B15" s="30"/>
       <c r="C15" s="102"/>
       <c r="D15" s="103"/>
-      <c r="E15" s="329"/>
+      <c r="E15" s="331"/>
       <c r="F15" s="74"/>
       <c r="G15" s="75"/>
       <c r="H15" s="75"/>
@@ -13179,11 +13217,11 @@
     <row r="16" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="64"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="327" t="s">
+      <c r="C16" s="329" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="328"/>
-      <c r="E16" s="330"/>
+      <c r="D16" s="330"/>
+      <c r="E16" s="332"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
@@ -13251,7 +13289,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
-      <c r="E17" s="329"/>
+      <c r="E17" s="331"/>
       <c r="F17" s="88"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
@@ -13321,7 +13359,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="54"/>
-      <c r="E18" s="330"/>
+      <c r="E18" s="332"/>
       <c r="F18" s="88"/>
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
@@ -13387,9 +13425,9 @@
     <row r="19" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="64"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="276"/>
+      <c r="C19" s="253"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="278"/>
       <c r="F19" s="65"/>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
@@ -13453,17 +13491,17 @@
       <c r="BN19" s="69"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="238">
+      <c r="A20" s="240">
         <v>6</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="265" t="s">
+      <c r="C20" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="267"/>
-      <c r="E20" s="254"/>
+      <c r="D20" s="269"/>
+      <c r="E20" s="256"/>
       <c r="F20" s="33"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -13527,11 +13565,11 @@
       <c r="BN20" s="58"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="239"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="30"/>
-      <c r="C21" s="314"/>
-      <c r="D21" s="315"/>
-      <c r="E21" s="320"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="322"/>
       <c r="F21" s="47"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -13595,15 +13633,15 @@
       <c r="BN21" s="57"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="238">
+      <c r="A22" s="240">
         <v>7</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="240" t="s">
+      <c r="C22" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="242"/>
-      <c r="E22" s="316"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="318"/>
       <c r="F22" s="46"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -13667,11 +13705,11 @@
       <c r="BN22" s="60"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="239"/>
+      <c r="A23" s="241"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="314"/>
-      <c r="D23" s="315"/>
-      <c r="E23" s="320"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="317"/>
+      <c r="E23" s="322"/>
       <c r="F23" s="47"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -13735,15 +13773,15 @@
       <c r="BN23" s="57"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="238">
+      <c r="A24" s="240">
         <v>8</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="240" t="s">
+      <c r="C24" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="242"/>
-      <c r="E24" s="316"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="318"/>
       <c r="F24" s="47"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -13807,11 +13845,11 @@
       <c r="BN24" s="57"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="239"/>
+      <c r="A25" s="241"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="245"/>
-      <c r="E25" s="255"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="257"/>
       <c r="F25" s="49"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -13875,17 +13913,17 @@
       <c r="BN25" s="61"/>
     </row>
     <row r="26" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="238">
+      <c r="A26" s="240">
         <v>9</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="265" t="s">
+      <c r="C26" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="267"/>
-      <c r="E26" s="254"/>
+      <c r="D26" s="269"/>
+      <c r="E26" s="256"/>
       <c r="F26" s="33"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -13949,11 +13987,11 @@
       <c r="BN26" s="58"/>
     </row>
     <row r="27" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="239"/>
+      <c r="A27" s="241"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="314"/>
-      <c r="D27" s="315"/>
-      <c r="E27" s="320"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="322"/>
       <c r="F27" s="46"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -14017,15 +14055,15 @@
       <c r="BN27" s="60"/>
     </row>
     <row r="28" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="238">
+      <c r="A28" s="240">
         <v>10</v>
       </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="313" t="s">
+      <c r="C28" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="242"/>
-      <c r="E28" s="316"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="318"/>
       <c r="F28" s="46"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -14089,11 +14127,11 @@
       <c r="BN28" s="60"/>
     </row>
     <row r="29" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="239"/>
+      <c r="A29" s="241"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="314"/>
-      <c r="D29" s="315"/>
-      <c r="E29" s="320"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="317"/>
+      <c r="E29" s="322"/>
       <c r="F29" s="46"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -14157,15 +14195,15 @@
       <c r="BN29" s="60"/>
     </row>
     <row r="30" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="238">
+      <c r="A30" s="240">
         <v>11</v>
       </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="313" t="s">
+      <c r="C30" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="242"/>
-      <c r="E30" s="316"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="47"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -14229,11 +14267,11 @@
       <c r="BN30" s="57"/>
     </row>
     <row r="31" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="239"/>
+      <c r="A31" s="241"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="314"/>
-      <c r="D31" s="315"/>
-      <c r="E31" s="255"/>
+      <c r="C31" s="316"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="257"/>
       <c r="F31" s="49"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -14297,17 +14335,17 @@
       <c r="BN31" s="61"/>
     </row>
     <row r="32" spans="1:67" ht="12" customHeight="1">
-      <c r="A32" s="238">
+      <c r="A32" s="240">
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="317" t="s">
+      <c r="C32" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="318"/>
-      <c r="E32" s="319"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="321"/>
       <c r="F32" s="33"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -14372,11 +14410,11 @@
       <c r="BO32" s="3"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="239"/>
+      <c r="A33" s="241"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="303"/>
-      <c r="E33" s="306"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="305"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="46"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -14441,15 +14479,15 @@
       <c r="BO33" s="3"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="238">
+      <c r="A34" s="240">
         <v>13</v>
       </c>
       <c r="B34" s="28"/>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="303"/>
-      <c r="E34" s="306"/>
+      <c r="D34" s="305"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="46"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -14514,11 +14552,11 @@
       <c r="BO34" s="3"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="239"/>
+      <c r="A35" s="241"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="305"/>
-      <c r="E35" s="307"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="307"/>
+      <c r="E35" s="309"/>
       <c r="F35" s="49"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -14583,17 +14621,17 @@
       <c r="BO35" s="3"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="238">
+      <c r="A36" s="240">
         <v>14</v>
       </c>
-      <c r="B36" s="308" t="s">
+      <c r="B36" s="310" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="265" t="s">
+      <c r="C36" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="267"/>
-      <c r="E36" s="311"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="313"/>
       <c r="F36" s="33"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -14658,11 +14696,11 @@
       <c r="BO36" s="3"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="239"/>
-      <c r="B37" s="309"/>
-      <c r="C37" s="310"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="312"/>
+      <c r="A37" s="241"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="312"/>
+      <c r="D37" s="303"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="34"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B80F6-B78B-4E02-85DA-8E0B7B781AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8FCE1-68F6-47EA-B5FE-980C08D5AD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="76">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -528,6 +528,10 @@
     <t>0％</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1984,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2643,6 +2647,192 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2679,196 +2869,61 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,15 +2932,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2904,58 +2962,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3659,8 +3666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDD62B1-0787-413B-81BF-C3150736C6CD}">
   <dimension ref="A1:BT111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3669,10 +3676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="293" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="133" t="s">
@@ -3682,84 +3689,84 @@
       <c r="E1" s="134"/>
       <c r="F1" s="134"/>
       <c r="G1" s="135"/>
-      <c r="H1" s="234" t="s">
+      <c r="H1" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="237">
+      <c r="I1" s="299">
         <v>45901</v>
       </c>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="237">
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="300"/>
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="300"/>
+      <c r="AA1" s="300"/>
+      <c r="AB1" s="300"/>
+      <c r="AC1" s="300"/>
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="300"/>
+      <c r="AG1" s="300"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="300"/>
+      <c r="AJ1" s="300"/>
+      <c r="AK1" s="300"/>
+      <c r="AL1" s="301"/>
+      <c r="AM1" s="299">
         <v>45931</v>
       </c>
-      <c r="AN1" s="238"/>
-      <c r="AO1" s="238"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="238"/>
-      <c r="AR1" s="238"/>
-      <c r="AS1" s="238"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
-      <c r="AW1" s="238"/>
-      <c r="AX1" s="238"/>
-      <c r="AY1" s="238"/>
-      <c r="AZ1" s="238"/>
-      <c r="BA1" s="238"/>
-      <c r="BB1" s="238"/>
-      <c r="BC1" s="238"/>
-      <c r="BD1" s="238"/>
-      <c r="BE1" s="238"/>
-      <c r="BF1" s="238"/>
-      <c r="BG1" s="238"/>
-      <c r="BH1" s="238"/>
-      <c r="BI1" s="238"/>
-      <c r="BJ1" s="238"/>
-      <c r="BK1" s="238"/>
-      <c r="BL1" s="238"/>
-      <c r="BM1" s="238"/>
-      <c r="BN1" s="238"/>
-      <c r="BO1" s="238"/>
-      <c r="BP1" s="238"/>
+      <c r="AN1" s="300"/>
+      <c r="AO1" s="300"/>
+      <c r="AP1" s="300"/>
+      <c r="AQ1" s="300"/>
+      <c r="AR1" s="300"/>
+      <c r="AS1" s="300"/>
+      <c r="AT1" s="300"/>
+      <c r="AU1" s="300"/>
+      <c r="AV1" s="300"/>
+      <c r="AW1" s="300"/>
+      <c r="AX1" s="300"/>
+      <c r="AY1" s="300"/>
+      <c r="AZ1" s="300"/>
+      <c r="BA1" s="300"/>
+      <c r="BB1" s="300"/>
+      <c r="BC1" s="300"/>
+      <c r="BD1" s="300"/>
+      <c r="BE1" s="300"/>
+      <c r="BF1" s="300"/>
+      <c r="BG1" s="300"/>
+      <c r="BH1" s="300"/>
+      <c r="BI1" s="300"/>
+      <c r="BJ1" s="300"/>
+      <c r="BK1" s="300"/>
+      <c r="BL1" s="300"/>
+      <c r="BM1" s="300"/>
+      <c r="BN1" s="300"/>
+      <c r="BO1" s="300"/>
+      <c r="BP1" s="300"/>
       <c r="BQ1" s="63"/>
     </row>
     <row r="2" spans="1:69">
-      <c r="A2" s="229"/>
-      <c r="B2" s="232"/>
+      <c r="A2" s="291"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="136"/>
       <c r="D2" s="137"/>
       <c r="E2" s="137"/>
       <c r="F2" s="137"/>
       <c r="G2" s="138"/>
-      <c r="H2" s="235"/>
+      <c r="H2" s="297"/>
       <c r="I2" s="42">
         <v>42156</v>
       </c>
@@ -3945,14 +3952,14 @@
       </c>
     </row>
     <row r="3" spans="1:69" ht="13.8" thickBot="1">
-      <c r="A3" s="230"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="292"/>
+      <c r="B3" s="295"/>
       <c r="C3" s="139"/>
       <c r="D3" s="140"/>
       <c r="E3" s="140"/>
       <c r="F3" s="140"/>
       <c r="G3" s="141"/>
-      <c r="H3" s="236"/>
+      <c r="H3" s="298"/>
       <c r="I3" s="44" t="s">
         <v>10</v>
       </c>
@@ -4138,20 +4145,20 @@
       </c>
     </row>
     <row r="4" spans="1:69">
-      <c r="A4" s="240">
+      <c r="A4" s="261">
         <v>1</v>
       </c>
       <c r="B4" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="248" t="s">
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="302" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="45"/>
@@ -4217,14 +4224,14 @@
       <c r="BQ4" s="56"/>
     </row>
     <row r="5" spans="1:69">
-      <c r="A5" s="241"/>
+      <c r="A5" s="265"/>
       <c r="B5" s="113"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="249"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="303"/>
       <c r="I5" s="47"/>
       <c r="J5" s="118"/>
       <c r="K5" s="22"/>
@@ -4240,8 +4247,8 @@
       <c r="U5" s="23"/>
       <c r="V5" s="24"/>
       <c r="W5" s="97"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="23"/>
@@ -4288,20 +4295,20 @@
       <c r="BQ5" s="57"/>
     </row>
     <row r="6" spans="1:69">
-      <c r="A6" s="240">
+      <c r="A6" s="261">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="242" t="s">
+      <c r="C6" s="283" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="256" t="s">
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="285"/>
+      <c r="H6" s="281" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="33"/>
@@ -4367,14 +4374,14 @@
       <c r="BQ6" s="58"/>
     </row>
     <row r="7" spans="1:69">
-      <c r="A7" s="241"/>
+      <c r="A7" s="265"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="257"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="282"/>
       <c r="I7" s="48"/>
       <c r="J7" s="117"/>
       <c r="K7" s="116"/>
@@ -4390,8 +4397,8 @@
       <c r="U7" s="39"/>
       <c r="V7" s="40"/>
       <c r="W7" s="97"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
       <c r="AB7" s="39"/>
@@ -4438,20 +4445,20 @@
       <c r="BQ7" s="115"/>
     </row>
     <row r="8" spans="1:69">
-      <c r="A8" s="240">
+      <c r="A8" s="261">
         <v>3</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="250" t="s">
+      <c r="C8" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="256" t="s">
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="281" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="33"/>
@@ -4517,14 +4524,14 @@
       <c r="BQ8" s="58"/>
     </row>
     <row r="9" spans="1:69">
-      <c r="A9" s="241"/>
+      <c r="A9" s="265"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="257"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="282"/>
       <c r="I9" s="48"/>
       <c r="J9" s="116"/>
       <c r="K9" s="116"/>
@@ -4540,8 +4547,8 @@
       <c r="U9" s="39"/>
       <c r="V9" s="40"/>
       <c r="W9" s="97"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
       <c r="AB9" s="39"/>
@@ -4588,20 +4595,20 @@
       <c r="BQ9" s="115"/>
     </row>
     <row r="10" spans="1:69">
-      <c r="A10" s="240">
+      <c r="A10" s="261">
         <v>4</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="250" t="s">
+      <c r="C10" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="256" t="s">
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="281" t="s">
         <v>72</v>
       </c>
       <c r="I10" s="33"/>
@@ -4667,14 +4674,14 @@
       <c r="BQ10" s="58"/>
     </row>
     <row r="11" spans="1:69">
-      <c r="A11" s="241"/>
+      <c r="A11" s="265"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="255"/>
-      <c r="H11" s="257"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="282"/>
       <c r="I11" s="48"/>
       <c r="J11" s="22"/>
       <c r="K11" s="90"/>
@@ -4690,8 +4697,8 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="97"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="39"/>
@@ -4738,21 +4745,21 @@
       <c r="BQ11" s="115"/>
     </row>
     <row r="12" spans="1:69">
-      <c r="A12" s="240">
+      <c r="A12" s="261">
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="250" t="s">
+      <c r="C12" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="256" t="s">
-        <v>72</v>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="281" t="s">
+        <v>75</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="7"/>
@@ -4817,14 +4824,14 @@
       <c r="BQ12" s="58"/>
     </row>
     <row r="13" spans="1:69">
-      <c r="A13" s="241"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="255"/>
-      <c r="H13" s="257"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="278"/>
+      <c r="H13" s="282"/>
       <c r="I13" s="48"/>
       <c r="J13" s="38"/>
       <c r="K13" s="145"/>
@@ -4840,8 +4847,8 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="97"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="39"/>
@@ -4888,22 +4895,22 @@
       <c r="BQ13" s="115"/>
     </row>
     <row r="14" spans="1:69">
-      <c r="A14" s="240">
+      <c r="A14" s="261">
         <v>7</v>
       </c>
-      <c r="B14" s="274" t="s">
+      <c r="B14" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="250" t="s">
+      <c r="C14" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="251"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="251" t="s">
+      <c r="D14" s="271"/>
+      <c r="E14" s="272"/>
+      <c r="F14" s="271" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="252"/>
-      <c r="H14" s="277" t="s">
+      <c r="G14" s="272"/>
+      <c r="H14" s="280" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="74"/>
@@ -4969,14 +4976,14 @@
       <c r="BQ14" s="130"/>
     </row>
     <row r="15" spans="1:69">
-      <c r="A15" s="266"/>
-      <c r="B15" s="275"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="278"/>
+      <c r="A15" s="262"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="274"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="244"/>
       <c r="I15" s="88"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
@@ -4993,7 +5000,7 @@
       <c r="V15" s="86"/>
       <c r="W15" s="143"/>
       <c r="X15" s="92"/>
-      <c r="Y15" s="8"/>
+      <c r="Y15" s="333"/>
       <c r="Z15" s="82"/>
       <c r="AA15" s="82"/>
       <c r="AB15" s="83"/>
@@ -5040,16 +5047,16 @@
       <c r="BQ15" s="87"/>
     </row>
     <row r="16" spans="1:69">
-      <c r="A16" s="266"/>
-      <c r="B16" s="275"/>
-      <c r="C16" s="276"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="251" t="s">
+      <c r="A16" s="262"/>
+      <c r="B16" s="269"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="274"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="252"/>
-      <c r="H16" s="277" t="s">
+      <c r="G16" s="272"/>
+      <c r="H16" s="280" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="88"/>
@@ -5115,14 +5122,14 @@
       <c r="BQ16" s="87"/>
     </row>
     <row r="17" spans="1:69">
-      <c r="A17" s="266"/>
-      <c r="B17" s="275"/>
-      <c r="C17" s="276"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="255"/>
-      <c r="H17" s="278"/>
+      <c r="A17" s="262"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="275"/>
+      <c r="F17" s="277"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="244"/>
       <c r="I17" s="88"/>
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
@@ -5138,8 +5145,8 @@
       <c r="U17" s="83"/>
       <c r="V17" s="86"/>
       <c r="W17" s="143"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="8"/>
+      <c r="X17" s="333"/>
+      <c r="Y17" s="333"/>
       <c r="Z17" s="82"/>
       <c r="AA17" s="82"/>
       <c r="AB17" s="83"/>
@@ -5186,16 +5193,16 @@
       <c r="BQ17" s="87"/>
     </row>
     <row r="18" spans="1:69">
-      <c r="A18" s="266"/>
-      <c r="B18" s="275"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="251" t="s">
+      <c r="A18" s="262"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="275"/>
+      <c r="F18" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="252"/>
-      <c r="H18" s="277" t="s">
+      <c r="G18" s="272"/>
+      <c r="H18" s="280" t="s">
         <v>72</v>
       </c>
       <c r="I18" s="88"/>
@@ -5261,14 +5268,14 @@
       <c r="BQ18" s="87"/>
     </row>
     <row r="19" spans="1:69">
-      <c r="A19" s="266"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="276"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="254"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="278"/>
+      <c r="A19" s="262"/>
+      <c r="B19" s="269"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="277"/>
+      <c r="G19" s="278"/>
+      <c r="H19" s="244"/>
       <c r="I19" s="88"/>
       <c r="J19" s="75"/>
       <c r="K19" s="82"/>
@@ -5284,8 +5291,8 @@
       <c r="U19" s="83"/>
       <c r="V19" s="86"/>
       <c r="W19" s="143"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
+      <c r="X19" s="226"/>
+      <c r="Y19" s="226"/>
       <c r="Z19" s="82"/>
       <c r="AA19" s="82"/>
       <c r="AB19" s="83"/>
@@ -5332,16 +5339,16 @@
       <c r="BQ19" s="87"/>
     </row>
     <row r="20" spans="1:69">
-      <c r="A20" s="266"/>
-      <c r="B20" s="275"/>
-      <c r="C20" s="276"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="251" t="s">
+      <c r="A20" s="262"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="274"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="252"/>
-      <c r="H20" s="277" t="s">
+      <c r="G20" s="272"/>
+      <c r="H20" s="280" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="88"/>
@@ -5407,14 +5414,14 @@
       <c r="BQ20" s="87"/>
     </row>
     <row r="21" spans="1:69">
-      <c r="A21" s="266"/>
-      <c r="B21" s="275"/>
-      <c r="C21" s="276"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="265"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="255"/>
-      <c r="H21" s="278"/>
+      <c r="A21" s="262"/>
+      <c r="B21" s="269"/>
+      <c r="C21" s="273"/>
+      <c r="D21" s="274"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="244"/>
       <c r="I21" s="74"/>
       <c r="J21" s="75"/>
       <c r="K21" s="75"/>
@@ -5431,7 +5438,7 @@
       <c r="V21" s="84"/>
       <c r="W21" s="126"/>
       <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
+      <c r="Y21" s="227"/>
       <c r="Z21" s="75"/>
       <c r="AA21" s="75"/>
       <c r="AB21" s="76"/>
@@ -5478,16 +5485,16 @@
       <c r="BQ21" s="114"/>
     </row>
     <row r="22" spans="1:69">
-      <c r="A22" s="266"/>
-      <c r="B22" s="275"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="264" t="s">
+      <c r="A22" s="262"/>
+      <c r="B22" s="269"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="265"/>
-      <c r="H22" s="279" t="s">
+      <c r="G22" s="275"/>
+      <c r="H22" s="243" t="s">
         <v>74</v>
       </c>
       <c r="I22" s="88"/>
@@ -5553,14 +5560,14 @@
       <c r="BQ22" s="87"/>
     </row>
     <row r="23" spans="1:69">
-      <c r="A23" s="266"/>
-      <c r="B23" s="275"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="264"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="279"/>
+      <c r="A23" s="262"/>
+      <c r="B23" s="269"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="278"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="243"/>
       <c r="I23" s="203"/>
       <c r="J23" s="204"/>
       <c r="K23" s="204"/>
@@ -5577,7 +5584,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="99"/>
       <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
+      <c r="Y23" s="116"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
       <c r="AB23" s="39"/>
@@ -5624,20 +5631,20 @@
       <c r="BQ23" s="214"/>
     </row>
     <row r="24" spans="1:69">
-      <c r="A24" s="240">
+      <c r="A24" s="261">
         <v>8</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="262"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="288"/>
       <c r="I24" s="200"/>
       <c r="J24" s="201"/>
       <c r="K24" s="201"/>
@@ -5701,14 +5708,14 @@
       <c r="BQ24" s="56"/>
     </row>
     <row r="25" spans="1:69">
-      <c r="A25" s="266"/>
+      <c r="A25" s="262"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="261"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="263"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="289"/>
       <c r="I25" s="182"/>
       <c r="J25" s="155"/>
       <c r="K25" s="155"/>
@@ -5772,16 +5779,16 @@
       <c r="BQ25" s="60"/>
     </row>
     <row r="26" spans="1:69">
-      <c r="A26" s="266"/>
+      <c r="A26" s="262"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="268"/>
-      <c r="G26" s="269"/>
-      <c r="H26" s="258"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="279"/>
       <c r="I26" s="182"/>
       <c r="J26" s="155"/>
       <c r="K26" s="155"/>
@@ -5844,14 +5851,14 @@
       <c r="BQ26" s="60"/>
     </row>
     <row r="27" spans="1:69">
-      <c r="A27" s="266"/>
+      <c r="A27" s="262"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="259"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="234"/>
+      <c r="H27" s="267"/>
       <c r="I27" s="182"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
@@ -5915,18 +5922,18 @@
       <c r="BQ27" s="60"/>
     </row>
     <row r="28" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A28" s="266"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="270" t="s">
+      <c r="C28" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="270"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="283" t="s">
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="245" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="284"/>
-      <c r="H28" s="258"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="279"/>
       <c r="I28" s="182"/>
       <c r="J28" s="155"/>
       <c r="K28" s="155"/>
@@ -5991,14 +5998,14 @@
       <c r="BQ28" s="60"/>
     </row>
     <row r="29" spans="1:69">
-      <c r="A29" s="266"/>
+      <c r="A29" s="262"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="259"/>
+      <c r="C29" s="259"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="267"/>
       <c r="I29" s="182"/>
       <c r="J29" s="155"/>
       <c r="K29" s="155"/>
@@ -6062,16 +6069,16 @@
       <c r="BQ29" s="60"/>
     </row>
     <row r="30" spans="1:69">
-      <c r="A30" s="266"/>
+      <c r="A30" s="262"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="283" t="s">
+      <c r="C30" s="259"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="245" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="284"/>
-      <c r="H30" s="258"/>
+      <c r="G30" s="246"/>
+      <c r="H30" s="279"/>
       <c r="I30" s="182"/>
       <c r="J30" s="155"/>
       <c r="K30" s="155"/>
@@ -6135,14 +6142,14 @@
       <c r="BQ30" s="60"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="A31" s="266"/>
+      <c r="A31" s="262"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="259"/>
+      <c r="C31" s="259"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="248"/>
+      <c r="H31" s="267"/>
       <c r="I31" s="182"/>
       <c r="J31" s="155"/>
       <c r="K31" s="155"/>
@@ -6206,16 +6213,16 @@
       <c r="BQ31" s="60"/>
     </row>
     <row r="32" spans="1:69">
-      <c r="A32" s="266"/>
+      <c r="A32" s="262"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="283" t="s">
+      <c r="C32" s="259"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="284"/>
-      <c r="H32" s="258"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="279"/>
       <c r="I32" s="182"/>
       <c r="J32" s="155"/>
       <c r="K32" s="155"/>
@@ -6279,14 +6286,14 @@
       <c r="BQ32" s="60"/>
     </row>
     <row r="33" spans="1:69">
-      <c r="A33" s="266"/>
+      <c r="A33" s="262"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="285"/>
-      <c r="G33" s="286"/>
-      <c r="H33" s="259"/>
+      <c r="C33" s="259"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="248"/>
+      <c r="H33" s="267"/>
       <c r="I33" s="182"/>
       <c r="J33" s="155"/>
       <c r="K33" s="155"/>
@@ -6350,16 +6357,16 @@
       <c r="BQ33" s="60"/>
     </row>
     <row r="34" spans="1:69">
-      <c r="A34" s="266"/>
+      <c r="A34" s="262"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="287" t="s">
+      <c r="C34" s="259"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="249" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="288"/>
-      <c r="H34" s="273"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="266"/>
       <c r="I34" s="182"/>
       <c r="J34" s="155"/>
       <c r="K34" s="155"/>
@@ -6423,14 +6430,14 @@
       <c r="BQ34" s="60"/>
     </row>
     <row r="35" spans="1:69" ht="12.6" customHeight="1">
-      <c r="A35" s="266"/>
+      <c r="A35" s="262"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="286"/>
-      <c r="H35" s="259"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="248"/>
+      <c r="H35" s="267"/>
       <c r="I35" s="182"/>
       <c r="J35" s="155"/>
       <c r="K35" s="155"/>
@@ -6494,18 +6501,18 @@
       <c r="BQ35" s="60"/>
     </row>
     <row r="36" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A36" s="266"/>
+      <c r="A36" s="262"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="270" t="s">
+      <c r="C36" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="270"/>
-      <c r="E36" s="270"/>
-      <c r="F36" s="283" t="s">
+      <c r="D36" s="263"/>
+      <c r="E36" s="263"/>
+      <c r="F36" s="245" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="284"/>
-      <c r="H36" s="258"/>
+      <c r="G36" s="246"/>
+      <c r="H36" s="279"/>
       <c r="I36" s="182"/>
       <c r="J36" s="155"/>
       <c r="K36" s="155"/>
@@ -6569,14 +6576,14 @@
       <c r="BQ36" s="60"/>
     </row>
     <row r="37" spans="1:69">
-      <c r="A37" s="266"/>
+      <c r="A37" s="262"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="271"/>
-      <c r="D37" s="271"/>
-      <c r="E37" s="271"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="286"/>
-      <c r="H37" s="259"/>
+      <c r="C37" s="259"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="247"/>
+      <c r="G37" s="248"/>
+      <c r="H37" s="267"/>
       <c r="I37" s="182"/>
       <c r="J37" s="155"/>
       <c r="K37" s="155"/>
@@ -6640,16 +6647,16 @@
       <c r="BQ37" s="60"/>
     </row>
     <row r="38" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A38" s="266"/>
+      <c r="A38" s="262"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="271"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="283" t="s">
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="245" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="284"/>
-      <c r="H38" s="258"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="279"/>
       <c r="I38" s="182"/>
       <c r="J38" s="155"/>
       <c r="K38" s="155"/>
@@ -6713,14 +6720,14 @@
       <c r="BQ38" s="60"/>
     </row>
     <row r="39" spans="1:69">
-      <c r="A39" s="266"/>
+      <c r="A39" s="262"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="271"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="286"/>
-      <c r="H39" s="259"/>
+      <c r="C39" s="259"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="248"/>
+      <c r="H39" s="267"/>
       <c r="I39" s="182"/>
       <c r="J39" s="155"/>
       <c r="K39" s="155"/>
@@ -6784,16 +6791,16 @@
       <c r="BQ39" s="60"/>
     </row>
     <row r="40" spans="1:69">
-      <c r="A40" s="266"/>
+      <c r="A40" s="262"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
-      <c r="F40" s="289" t="s">
+      <c r="C40" s="259"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="259"/>
+      <c r="F40" s="256" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="290"/>
-      <c r="H40" s="258"/>
+      <c r="G40" s="240"/>
+      <c r="H40" s="279"/>
       <c r="I40" s="182"/>
       <c r="J40" s="155"/>
       <c r="K40" s="155"/>
@@ -6857,14 +6864,14 @@
       <c r="BQ40" s="60"/>
     </row>
     <row r="41" spans="1:69" ht="13.8" customHeight="1">
-      <c r="A41" s="266"/>
+      <c r="A41" s="262"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="272"/>
-      <c r="F41" s="291"/>
-      <c r="G41" s="292"/>
-      <c r="H41" s="259"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="264"/>
+      <c r="E41" s="264"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="242"/>
+      <c r="H41" s="267"/>
       <c r="I41" s="182"/>
       <c r="J41" s="155"/>
       <c r="K41" s="155"/>
@@ -6928,18 +6935,18 @@
       <c r="BQ41" s="60"/>
     </row>
     <row r="42" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A42" s="266"/>
+      <c r="A42" s="262"/>
       <c r="B42" s="30"/>
-      <c r="C42" s="293" t="s">
+      <c r="C42" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="293"/>
-      <c r="E42" s="293"/>
-      <c r="F42" s="283" t="s">
+      <c r="D42" s="258"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="245" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="284"/>
-      <c r="H42" s="258"/>
+      <c r="G42" s="246"/>
+      <c r="H42" s="279"/>
       <c r="I42" s="182"/>
       <c r="J42" s="155"/>
       <c r="K42" s="155"/>
@@ -7003,14 +7010,14 @@
       <c r="BQ42" s="60"/>
     </row>
     <row r="43" spans="1:69">
-      <c r="A43" s="266"/>
+      <c r="A43" s="262"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="286"/>
-      <c r="H43" s="259"/>
+      <c r="C43" s="259"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="247"/>
+      <c r="G43" s="248"/>
+      <c r="H43" s="267"/>
       <c r="I43" s="182"/>
       <c r="J43" s="155"/>
       <c r="K43" s="155"/>
@@ -7074,16 +7081,16 @@
       <c r="BQ43" s="60"/>
     </row>
     <row r="44" spans="1:69">
-      <c r="A44" s="266"/>
+      <c r="A44" s="262"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="271"/>
-      <c r="D44" s="271"/>
-      <c r="E44" s="271"/>
-      <c r="F44" s="283" t="s">
+      <c r="C44" s="259"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="284"/>
-      <c r="H44" s="258"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="279"/>
       <c r="I44" s="182"/>
       <c r="J44" s="155"/>
       <c r="K44" s="155"/>
@@ -7147,14 +7154,14 @@
       <c r="BQ44" s="60"/>
     </row>
     <row r="45" spans="1:69">
-      <c r="A45" s="266"/>
+      <c r="A45" s="262"/>
       <c r="B45" s="30"/>
-      <c r="C45" s="271"/>
-      <c r="D45" s="271"/>
-      <c r="E45" s="271"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="259"/>
+      <c r="C45" s="259"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="247"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="267"/>
       <c r="I45" s="182"/>
       <c r="J45" s="155"/>
       <c r="K45" s="155"/>
@@ -7218,16 +7225,16 @@
       <c r="BQ45" s="60"/>
     </row>
     <row r="46" spans="1:69" ht="13.2" customHeight="1">
-      <c r="A46" s="266"/>
+      <c r="A46" s="262"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="287" t="s">
+      <c r="C46" s="259"/>
+      <c r="D46" s="259"/>
+      <c r="E46" s="259"/>
+      <c r="F46" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="288"/>
-      <c r="H46" s="273"/>
+      <c r="G46" s="250"/>
+      <c r="H46" s="266"/>
       <c r="I46" s="182"/>
       <c r="J46" s="155"/>
       <c r="K46" s="155"/>
@@ -7291,14 +7298,14 @@
       <c r="BQ46" s="60"/>
     </row>
     <row r="47" spans="1:69">
-      <c r="A47" s="241"/>
+      <c r="A47" s="265"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="294"/>
-      <c r="D47" s="294"/>
-      <c r="E47" s="294"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="286"/>
-      <c r="H47" s="259"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="260"/>
+      <c r="E47" s="260"/>
+      <c r="F47" s="247"/>
+      <c r="G47" s="248"/>
+      <c r="H47" s="267"/>
       <c r="I47" s="215"/>
       <c r="J47" s="90"/>
       <c r="K47" s="90"/>
@@ -7362,22 +7369,22 @@
       <c r="BQ47" s="61"/>
     </row>
     <row r="48" spans="1:69">
-      <c r="A48" s="240">
+      <c r="A48" s="261">
         <v>9</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="267" t="s">
+      <c r="C48" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="268"/>
-      <c r="E48" s="269"/>
-      <c r="F48" s="268" t="s">
+      <c r="D48" s="231"/>
+      <c r="E48" s="232"/>
+      <c r="F48" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="269"/>
-      <c r="H48" s="279"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="243"/>
       <c r="I48" s="45"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -7441,14 +7448,14 @@
       <c r="BQ48" s="56"/>
     </row>
     <row r="49" spans="1:69">
-      <c r="A49" s="266"/>
+      <c r="A49" s="262"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="280"/>
-      <c r="D49" s="281"/>
-      <c r="E49" s="282"/>
-      <c r="F49" s="246"/>
-      <c r="G49" s="247"/>
-      <c r="H49" s="278"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="233"/>
+      <c r="G49" s="234"/>
+      <c r="H49" s="244"/>
       <c r="I49" s="154"/>
       <c r="J49" s="155"/>
       <c r="K49" s="66"/>
@@ -7512,16 +7519,16 @@
       <c r="BQ49" s="114"/>
     </row>
     <row r="50" spans="1:69">
-      <c r="A50" s="266"/>
+      <c r="A50" s="262"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="280"/>
-      <c r="D50" s="281"/>
-      <c r="E50" s="282"/>
-      <c r="F50" s="268" t="s">
+      <c r="C50" s="252"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="269"/>
-      <c r="H50" s="279"/>
+      <c r="G50" s="232"/>
+      <c r="H50" s="243"/>
       <c r="I50" s="45"/>
       <c r="J50" s="10"/>
       <c r="K50" s="155"/>
@@ -7585,14 +7592,14 @@
       <c r="BQ50" s="162"/>
     </row>
     <row r="51" spans="1:69">
-      <c r="A51" s="266"/>
+      <c r="A51" s="262"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="280"/>
-      <c r="D51" s="281"/>
-      <c r="E51" s="282"/>
-      <c r="F51" s="246"/>
-      <c r="G51" s="247"/>
-      <c r="H51" s="278"/>
+      <c r="C51" s="252"/>
+      <c r="D51" s="253"/>
+      <c r="E51" s="254"/>
+      <c r="F51" s="233"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="244"/>
       <c r="I51" s="45"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -7656,16 +7663,16 @@
       <c r="BQ51" s="56"/>
     </row>
     <row r="52" spans="1:69">
-      <c r="A52" s="266"/>
+      <c r="A52" s="262"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="280"/>
-      <c r="D52" s="281"/>
-      <c r="E52" s="282"/>
-      <c r="F52" s="268" t="s">
+      <c r="C52" s="252"/>
+      <c r="D52" s="253"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="269"/>
-      <c r="H52" s="279"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="243"/>
       <c r="I52" s="46"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -7729,14 +7736,14 @@
       <c r="BQ52" s="60"/>
     </row>
     <row r="53" spans="1:69">
-      <c r="A53" s="266"/>
+      <c r="A53" s="262"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="280"/>
-      <c r="D53" s="281"/>
-      <c r="E53" s="282"/>
-      <c r="F53" s="246"/>
-      <c r="G53" s="247"/>
-      <c r="H53" s="278"/>
+      <c r="C53" s="252"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="254"/>
+      <c r="F53" s="233"/>
+      <c r="G53" s="234"/>
+      <c r="H53" s="244"/>
       <c r="I53" s="46"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -7800,16 +7807,16 @@
       <c r="BQ53" s="60"/>
     </row>
     <row r="54" spans="1:69">
-      <c r="A54" s="266"/>
+      <c r="A54" s="262"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="280"/>
-      <c r="D54" s="281"/>
-      <c r="E54" s="282"/>
-      <c r="F54" s="268" t="s">
+      <c r="C54" s="252"/>
+      <c r="D54" s="253"/>
+      <c r="E54" s="254"/>
+      <c r="F54" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="269"/>
-      <c r="H54" s="279"/>
+      <c r="G54" s="232"/>
+      <c r="H54" s="243"/>
       <c r="I54" s="45"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -7873,14 +7880,14 @@
       <c r="BQ54" s="56"/>
     </row>
     <row r="55" spans="1:69">
-      <c r="A55" s="266"/>
+      <c r="A55" s="262"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="280"/>
-      <c r="D55" s="281"/>
-      <c r="E55" s="282"/>
-      <c r="F55" s="246"/>
-      <c r="G55" s="247"/>
-      <c r="H55" s="278"/>
+      <c r="C55" s="252"/>
+      <c r="D55" s="253"/>
+      <c r="E55" s="254"/>
+      <c r="F55" s="233"/>
+      <c r="G55" s="234"/>
+      <c r="H55" s="244"/>
       <c r="I55" s="46"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -7944,16 +7951,16 @@
       <c r="BQ55" s="60"/>
     </row>
     <row r="56" spans="1:69">
-      <c r="A56" s="266"/>
+      <c r="A56" s="262"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="280"/>
-      <c r="D56" s="281"/>
-      <c r="E56" s="282"/>
-      <c r="F56" s="268" t="s">
+      <c r="C56" s="252"/>
+      <c r="D56" s="253"/>
+      <c r="E56" s="254"/>
+      <c r="F56" s="231" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="269"/>
-      <c r="H56" s="279"/>
+      <c r="G56" s="232"/>
+      <c r="H56" s="243"/>
       <c r="I56" s="45"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -8017,14 +8024,14 @@
       <c r="BQ56" s="56"/>
     </row>
     <row r="57" spans="1:69">
-      <c r="A57" s="266"/>
+      <c r="A57" s="262"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="280"/>
-      <c r="D57" s="281"/>
-      <c r="E57" s="282"/>
-      <c r="F57" s="246"/>
-      <c r="G57" s="247"/>
-      <c r="H57" s="278"/>
+      <c r="C57" s="252"/>
+      <c r="D57" s="253"/>
+      <c r="E57" s="254"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="234"/>
+      <c r="H57" s="244"/>
       <c r="I57" s="46"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -8088,16 +8095,16 @@
       <c r="BQ57" s="60"/>
     </row>
     <row r="58" spans="1:69">
-      <c r="A58" s="266"/>
+      <c r="A58" s="262"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="280"/>
-      <c r="D58" s="281"/>
-      <c r="E58" s="282"/>
-      <c r="F58" s="295" t="s">
+      <c r="C58" s="252"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="254"/>
+      <c r="F58" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="290"/>
-      <c r="H58" s="279"/>
+      <c r="G58" s="240"/>
+      <c r="H58" s="243"/>
       <c r="I58" s="46"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -8161,14 +8168,14 @@
       <c r="BQ58" s="60"/>
     </row>
     <row r="59" spans="1:69">
-      <c r="A59" s="266"/>
+      <c r="A59" s="262"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="281"/>
-      <c r="E59" s="282"/>
-      <c r="F59" s="296"/>
-      <c r="G59" s="292"/>
-      <c r="H59" s="278"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="241"/>
+      <c r="G59" s="242"/>
+      <c r="H59" s="244"/>
       <c r="I59" s="46"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -8232,16 +8239,16 @@
       <c r="BQ59" s="60"/>
     </row>
     <row r="60" spans="1:69">
-      <c r="A60" s="266"/>
+      <c r="A60" s="262"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="280"/>
-      <c r="D60" s="281"/>
-      <c r="E60" s="282"/>
-      <c r="F60" s="295" t="s">
+      <c r="C60" s="252"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="G60" s="290"/>
-      <c r="H60" s="279"/>
+      <c r="G60" s="240"/>
+      <c r="H60" s="243"/>
       <c r="I60" s="46"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -8305,14 +8312,14 @@
       <c r="BQ60" s="60"/>
     </row>
     <row r="61" spans="1:69">
-      <c r="A61" s="266"/>
+      <c r="A61" s="262"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="280"/>
-      <c r="D61" s="281"/>
-      <c r="E61" s="282"/>
-      <c r="F61" s="296"/>
-      <c r="G61" s="292"/>
-      <c r="H61" s="278"/>
+      <c r="C61" s="252"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="254"/>
+      <c r="F61" s="241"/>
+      <c r="G61" s="242"/>
+      <c r="H61" s="244"/>
       <c r="I61" s="45"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -8376,16 +8383,16 @@
       <c r="BQ61" s="56"/>
     </row>
     <row r="62" spans="1:69">
-      <c r="A62" s="266"/>
+      <c r="A62" s="262"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="280"/>
-      <c r="D62" s="281"/>
-      <c r="E62" s="282"/>
-      <c r="F62" s="268" t="s">
+      <c r="C62" s="252"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="254"/>
+      <c r="F62" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="269"/>
-      <c r="H62" s="279"/>
+      <c r="G62" s="232"/>
+      <c r="H62" s="243"/>
       <c r="I62" s="46"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -8449,14 +8456,14 @@
       <c r="BQ62" s="60"/>
     </row>
     <row r="63" spans="1:69">
-      <c r="A63" s="266"/>
+      <c r="A63" s="262"/>
       <c r="B63" s="30"/>
-      <c r="C63" s="280"/>
-      <c r="D63" s="281"/>
-      <c r="E63" s="282"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="247"/>
-      <c r="H63" s="278"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="253"/>
+      <c r="E63" s="254"/>
+      <c r="F63" s="233"/>
+      <c r="G63" s="234"/>
+      <c r="H63" s="244"/>
       <c r="I63" s="46"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -8520,16 +8527,16 @@
       <c r="BQ63" s="60"/>
     </row>
     <row r="64" spans="1:69">
-      <c r="A64" s="266"/>
+      <c r="A64" s="262"/>
       <c r="B64" s="30"/>
-      <c r="C64" s="280"/>
-      <c r="D64" s="281"/>
-      <c r="E64" s="282"/>
-      <c r="F64" s="268" t="s">
+      <c r="C64" s="252"/>
+      <c r="D64" s="253"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="G64" s="269"/>
-      <c r="H64" s="279"/>
+      <c r="G64" s="232"/>
+      <c r="H64" s="243"/>
       <c r="I64" s="46"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -8593,14 +8600,14 @@
       <c r="BQ64" s="60"/>
     </row>
     <row r="65" spans="1:69">
-      <c r="A65" s="266"/>
+      <c r="A65" s="262"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="280"/>
-      <c r="D65" s="281"/>
-      <c r="E65" s="282"/>
-      <c r="F65" s="246"/>
-      <c r="G65" s="247"/>
-      <c r="H65" s="278"/>
+      <c r="C65" s="252"/>
+      <c r="D65" s="253"/>
+      <c r="E65" s="254"/>
+      <c r="F65" s="233"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="244"/>
       <c r="I65" s="46"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -8664,16 +8671,16 @@
       <c r="BQ65" s="60"/>
     </row>
     <row r="66" spans="1:69">
-      <c r="A66" s="266"/>
+      <c r="A66" s="262"/>
       <c r="B66" s="30"/>
-      <c r="C66" s="280"/>
-      <c r="D66" s="281"/>
-      <c r="E66" s="282"/>
-      <c r="F66" s="268" t="s">
+      <c r="C66" s="252"/>
+      <c r="D66" s="253"/>
+      <c r="E66" s="254"/>
+      <c r="F66" s="231" t="s">
         <v>53</v>
       </c>
-      <c r="G66" s="269"/>
-      <c r="H66" s="279"/>
+      <c r="G66" s="232"/>
+      <c r="H66" s="243"/>
       <c r="I66" s="46"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -8737,14 +8744,14 @@
       <c r="BQ66" s="60"/>
     </row>
     <row r="67" spans="1:69">
-      <c r="A67" s="266"/>
+      <c r="A67" s="262"/>
       <c r="B67" s="30"/>
-      <c r="C67" s="280"/>
-      <c r="D67" s="281"/>
-      <c r="E67" s="282"/>
-      <c r="F67" s="246"/>
-      <c r="G67" s="247"/>
-      <c r="H67" s="278"/>
+      <c r="C67" s="252"/>
+      <c r="D67" s="253"/>
+      <c r="E67" s="254"/>
+      <c r="F67" s="233"/>
+      <c r="G67" s="234"/>
+      <c r="H67" s="244"/>
       <c r="I67" s="46"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -8808,16 +8815,16 @@
       <c r="BQ67" s="60"/>
     </row>
     <row r="68" spans="1:69">
-      <c r="A68" s="266"/>
+      <c r="A68" s="262"/>
       <c r="B68" s="30"/>
-      <c r="C68" s="280"/>
-      <c r="D68" s="281"/>
-      <c r="E68" s="282"/>
-      <c r="F68" s="268" t="s">
+      <c r="C68" s="252"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="269"/>
-      <c r="H68" s="279"/>
+      <c r="G68" s="232"/>
+      <c r="H68" s="243"/>
       <c r="I68" s="46"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -8881,14 +8888,14 @@
       <c r="BQ68" s="60"/>
     </row>
     <row r="69" spans="1:69">
-      <c r="A69" s="266"/>
+      <c r="A69" s="262"/>
       <c r="B69" s="30"/>
-      <c r="C69" s="280"/>
-      <c r="D69" s="281"/>
-      <c r="E69" s="282"/>
-      <c r="F69" s="246"/>
-      <c r="G69" s="247"/>
-      <c r="H69" s="278"/>
+      <c r="C69" s="252"/>
+      <c r="D69" s="253"/>
+      <c r="E69" s="254"/>
+      <c r="F69" s="233"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="244"/>
       <c r="I69" s="46"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -8952,16 +8959,16 @@
       <c r="BQ69" s="60"/>
     </row>
     <row r="70" spans="1:69">
-      <c r="A70" s="266"/>
+      <c r="A70" s="262"/>
       <c r="B70" s="30"/>
-      <c r="C70" s="280"/>
-      <c r="D70" s="281"/>
-      <c r="E70" s="282"/>
-      <c r="F70" s="268" t="s">
+      <c r="C70" s="252"/>
+      <c r="D70" s="253"/>
+      <c r="E70" s="254"/>
+      <c r="F70" s="231" t="s">
         <v>66</v>
       </c>
-      <c r="G70" s="269"/>
-      <c r="H70" s="279"/>
+      <c r="G70" s="232"/>
+      <c r="H70" s="243"/>
       <c r="I70" s="46"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -9025,14 +9032,14 @@
       <c r="BQ70" s="60"/>
     </row>
     <row r="71" spans="1:69">
-      <c r="A71" s="266"/>
+      <c r="A71" s="262"/>
       <c r="B71" s="30"/>
-      <c r="C71" s="280"/>
-      <c r="D71" s="281"/>
-      <c r="E71" s="282"/>
-      <c r="F71" s="246"/>
-      <c r="G71" s="247"/>
-      <c r="H71" s="278"/>
+      <c r="C71" s="252"/>
+      <c r="D71" s="253"/>
+      <c r="E71" s="254"/>
+      <c r="F71" s="233"/>
+      <c r="G71" s="234"/>
+      <c r="H71" s="244"/>
       <c r="I71" s="46"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -9096,16 +9103,16 @@
       <c r="BQ71" s="60"/>
     </row>
     <row r="72" spans="1:69">
-      <c r="A72" s="266"/>
+      <c r="A72" s="262"/>
       <c r="B72" s="30"/>
-      <c r="C72" s="280"/>
-      <c r="D72" s="281"/>
-      <c r="E72" s="282"/>
-      <c r="F72" s="268" t="s">
+      <c r="C72" s="252"/>
+      <c r="D72" s="253"/>
+      <c r="E72" s="254"/>
+      <c r="F72" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="269"/>
-      <c r="H72" s="279"/>
+      <c r="G72" s="232"/>
+      <c r="H72" s="243"/>
       <c r="I72" s="46"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -9169,14 +9176,14 @@
       <c r="BQ72" s="60"/>
     </row>
     <row r="73" spans="1:69">
-      <c r="A73" s="266"/>
+      <c r="A73" s="262"/>
       <c r="B73" s="30"/>
-      <c r="C73" s="280"/>
-      <c r="D73" s="281"/>
-      <c r="E73" s="282"/>
-      <c r="F73" s="246"/>
-      <c r="G73" s="247"/>
-      <c r="H73" s="278"/>
+      <c r="C73" s="252"/>
+      <c r="D73" s="253"/>
+      <c r="E73" s="254"/>
+      <c r="F73" s="233"/>
+      <c r="G73" s="234"/>
+      <c r="H73" s="244"/>
       <c r="I73" s="46"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -9240,16 +9247,16 @@
       <c r="BQ73" s="60"/>
     </row>
     <row r="74" spans="1:69">
-      <c r="A74" s="266"/>
+      <c r="A74" s="262"/>
       <c r="B74" s="30"/>
-      <c r="C74" s="280"/>
-      <c r="D74" s="281"/>
-      <c r="E74" s="282"/>
-      <c r="F74" s="268" t="s">
+      <c r="C74" s="252"/>
+      <c r="D74" s="253"/>
+      <c r="E74" s="254"/>
+      <c r="F74" s="231" t="s">
         <v>67</v>
       </c>
-      <c r="G74" s="269"/>
-      <c r="H74" s="279"/>
+      <c r="G74" s="232"/>
+      <c r="H74" s="243"/>
       <c r="I74" s="46"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -9313,14 +9320,14 @@
       <c r="BQ74" s="60"/>
     </row>
     <row r="75" spans="1:69">
-      <c r="A75" s="266"/>
+      <c r="A75" s="262"/>
       <c r="B75" s="30"/>
-      <c r="C75" s="280"/>
-      <c r="D75" s="281"/>
-      <c r="E75" s="282"/>
-      <c r="F75" s="246"/>
-      <c r="G75" s="247"/>
-      <c r="H75" s="278"/>
+      <c r="C75" s="252"/>
+      <c r="D75" s="253"/>
+      <c r="E75" s="254"/>
+      <c r="F75" s="233"/>
+      <c r="G75" s="234"/>
+      <c r="H75" s="244"/>
       <c r="I75" s="46"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -9384,16 +9391,16 @@
       <c r="BQ75" s="60"/>
     </row>
     <row r="76" spans="1:69">
-      <c r="A76" s="266"/>
+      <c r="A76" s="262"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="280"/>
-      <c r="D76" s="281"/>
-      <c r="E76" s="282"/>
-      <c r="F76" s="281" t="s">
+      <c r="C76" s="252"/>
+      <c r="D76" s="253"/>
+      <c r="E76" s="254"/>
+      <c r="F76" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="282"/>
-      <c r="H76" s="279"/>
+      <c r="G76" s="254"/>
+      <c r="H76" s="243"/>
       <c r="I76" s="65"/>
       <c r="J76" s="66"/>
       <c r="K76" s="66"/>
@@ -9457,14 +9464,14 @@
       <c r="BQ76" s="69"/>
     </row>
     <row r="77" spans="1:69">
-      <c r="A77" s="241"/>
+      <c r="A77" s="265"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="245"/>
-      <c r="D77" s="246"/>
-      <c r="E77" s="247"/>
-      <c r="F77" s="246"/>
-      <c r="G77" s="247"/>
-      <c r="H77" s="278"/>
+      <c r="C77" s="255"/>
+      <c r="D77" s="233"/>
+      <c r="E77" s="234"/>
+      <c r="F77" s="233"/>
+      <c r="G77" s="234"/>
+      <c r="H77" s="244"/>
       <c r="I77" s="47"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
@@ -9528,22 +9535,22 @@
       <c r="BQ77" s="57"/>
     </row>
     <row r="78" spans="1:69">
-      <c r="A78" s="240">
+      <c r="A78" s="261">
         <v>10</v>
       </c>
       <c r="B78" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="267" t="s">
+      <c r="C78" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="268"/>
-      <c r="E78" s="269"/>
-      <c r="F78" s="268" t="s">
+      <c r="D78" s="231"/>
+      <c r="E78" s="232"/>
+      <c r="F78" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="G78" s="269"/>
-      <c r="H78" s="299"/>
+      <c r="G78" s="232"/>
+      <c r="H78" s="228"/>
       <c r="I78" s="33"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -9607,14 +9614,14 @@
       <c r="BQ78" s="111"/>
     </row>
     <row r="79" spans="1:69">
-      <c r="A79" s="266"/>
+      <c r="A79" s="262"/>
       <c r="B79" s="113"/>
-      <c r="C79" s="280"/>
-      <c r="D79" s="281"/>
-      <c r="E79" s="282"/>
-      <c r="F79" s="246"/>
-      <c r="G79" s="247"/>
-      <c r="H79" s="300"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="253"/>
+      <c r="E79" s="254"/>
+      <c r="F79" s="233"/>
+      <c r="G79" s="234"/>
+      <c r="H79" s="229"/>
       <c r="I79" s="46"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -9678,16 +9685,16 @@
       <c r="BQ79" s="165"/>
     </row>
     <row r="80" spans="1:69">
-      <c r="A80" s="266"/>
+      <c r="A80" s="262"/>
       <c r="B80" s="113"/>
-      <c r="C80" s="280"/>
-      <c r="D80" s="281"/>
-      <c r="E80" s="282"/>
-      <c r="F80" s="268" t="s">
+      <c r="C80" s="252"/>
+      <c r="D80" s="253"/>
+      <c r="E80" s="254"/>
+      <c r="F80" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="269"/>
-      <c r="H80" s="297"/>
+      <c r="G80" s="232"/>
+      <c r="H80" s="237"/>
       <c r="I80" s="45"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -9751,14 +9758,14 @@
       <c r="BQ80" s="176"/>
     </row>
     <row r="81" spans="1:69">
-      <c r="A81" s="266"/>
+      <c r="A81" s="262"/>
       <c r="B81" s="113"/>
-      <c r="C81" s="280"/>
-      <c r="D81" s="281"/>
-      <c r="E81" s="282"/>
-      <c r="F81" s="246"/>
-      <c r="G81" s="247"/>
-      <c r="H81" s="298"/>
+      <c r="C81" s="252"/>
+      <c r="D81" s="253"/>
+      <c r="E81" s="254"/>
+      <c r="F81" s="233"/>
+      <c r="G81" s="234"/>
+      <c r="H81" s="238"/>
       <c r="I81" s="46"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -9822,16 +9829,16 @@
       <c r="BQ81" s="165"/>
     </row>
     <row r="82" spans="1:69">
-      <c r="A82" s="266"/>
+      <c r="A82" s="262"/>
       <c r="B82" s="113"/>
-      <c r="C82" s="280"/>
-      <c r="D82" s="281"/>
-      <c r="E82" s="282"/>
-      <c r="F82" s="268" t="s">
+      <c r="C82" s="252"/>
+      <c r="D82" s="253"/>
+      <c r="E82" s="254"/>
+      <c r="F82" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="G82" s="269"/>
-      <c r="H82" s="299"/>
+      <c r="G82" s="232"/>
+      <c r="H82" s="228"/>
       <c r="I82" s="46"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -9900,9 +9907,9 @@
       <c r="C83" s="123"/>
       <c r="D83" s="131"/>
       <c r="E83" s="166"/>
-      <c r="F83" s="246"/>
-      <c r="G83" s="247"/>
-      <c r="H83" s="300"/>
+      <c r="F83" s="233"/>
+      <c r="G83" s="234"/>
+      <c r="H83" s="229"/>
       <c r="I83" s="46"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -9971,11 +9978,11 @@
       <c r="C84" s="123"/>
       <c r="D84" s="131"/>
       <c r="E84" s="166"/>
-      <c r="F84" s="268" t="s">
+      <c r="F84" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="269"/>
-      <c r="H84" s="299"/>
+      <c r="G84" s="232"/>
+      <c r="H84" s="228"/>
       <c r="I84" s="46"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -10044,9 +10051,9 @@
       <c r="C85" s="123"/>
       <c r="D85" s="131"/>
       <c r="E85" s="166"/>
-      <c r="F85" s="246"/>
-      <c r="G85" s="247"/>
-      <c r="H85" s="300"/>
+      <c r="F85" s="233"/>
+      <c r="G85" s="234"/>
+      <c r="H85" s="229"/>
       <c r="I85" s="46"/>
       <c r="J85" s="155"/>
       <c r="K85" s="155"/>
@@ -10115,11 +10122,11 @@
       <c r="C86" s="123"/>
       <c r="D86" s="131"/>
       <c r="E86" s="166"/>
-      <c r="F86" s="268" t="s">
+      <c r="F86" s="231" t="s">
         <v>62</v>
       </c>
-      <c r="G86" s="269"/>
-      <c r="H86" s="299"/>
+      <c r="G86" s="232"/>
+      <c r="H86" s="228"/>
       <c r="I86" s="46"/>
       <c r="J86" s="155"/>
       <c r="K86" s="155"/>
@@ -10188,9 +10195,9 @@
       <c r="C87" s="123"/>
       <c r="D87" s="131"/>
       <c r="E87" s="166"/>
-      <c r="F87" s="246"/>
-      <c r="G87" s="247"/>
-      <c r="H87" s="300"/>
+      <c r="F87" s="233"/>
+      <c r="G87" s="234"/>
+      <c r="H87" s="229"/>
       <c r="I87" s="46"/>
       <c r="J87" s="155"/>
       <c r="K87" s="155"/>
@@ -10259,11 +10266,11 @@
       <c r="C88" s="123"/>
       <c r="D88" s="131"/>
       <c r="E88" s="166"/>
-      <c r="F88" s="295" t="s">
+      <c r="F88" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="G88" s="290"/>
-      <c r="H88" s="299"/>
+      <c r="G88" s="240"/>
+      <c r="H88" s="228"/>
       <c r="I88" s="46"/>
       <c r="J88" s="155"/>
       <c r="K88" s="155"/>
@@ -10332,9 +10339,9 @@
       <c r="C89" s="123"/>
       <c r="D89" s="131"/>
       <c r="E89" s="166"/>
-      <c r="F89" s="296"/>
-      <c r="G89" s="292"/>
-      <c r="H89" s="300"/>
+      <c r="F89" s="241"/>
+      <c r="G89" s="242"/>
+      <c r="H89" s="229"/>
       <c r="I89" s="46"/>
       <c r="J89" s="155"/>
       <c r="K89" s="155"/>
@@ -10403,11 +10410,11 @@
       <c r="C90" s="123"/>
       <c r="D90" s="131"/>
       <c r="E90" s="166"/>
-      <c r="F90" s="295" t="s">
+      <c r="F90" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="G90" s="290"/>
-      <c r="H90" s="299"/>
+      <c r="G90" s="240"/>
+      <c r="H90" s="228"/>
       <c r="I90" s="46"/>
       <c r="J90" s="155"/>
       <c r="K90" s="155"/>
@@ -10476,9 +10483,9 @@
       <c r="C91" s="123"/>
       <c r="D91" s="131"/>
       <c r="E91" s="166"/>
-      <c r="F91" s="296"/>
-      <c r="G91" s="292"/>
-      <c r="H91" s="300"/>
+      <c r="F91" s="241"/>
+      <c r="G91" s="242"/>
+      <c r="H91" s="229"/>
       <c r="I91" s="46"/>
       <c r="J91" s="155"/>
       <c r="K91" s="155"/>
@@ -10547,11 +10554,11 @@
       <c r="C92" s="123"/>
       <c r="D92" s="131"/>
       <c r="E92" s="166"/>
-      <c r="F92" s="268" t="s">
+      <c r="F92" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="G92" s="269"/>
-      <c r="H92" s="299"/>
+      <c r="G92" s="232"/>
+      <c r="H92" s="228"/>
       <c r="I92" s="46"/>
       <c r="J92" s="155"/>
       <c r="K92" s="155"/>
@@ -10620,9 +10627,9 @@
       <c r="C93" s="123"/>
       <c r="D93" s="131"/>
       <c r="E93" s="166"/>
-      <c r="F93" s="246"/>
-      <c r="G93" s="247"/>
-      <c r="H93" s="300"/>
+      <c r="F93" s="233"/>
+      <c r="G93" s="234"/>
+      <c r="H93" s="229"/>
       <c r="I93" s="46"/>
       <c r="J93" s="155"/>
       <c r="K93" s="155"/>
@@ -10691,11 +10698,11 @@
       <c r="C94" s="123"/>
       <c r="D94" s="131"/>
       <c r="E94" s="166"/>
-      <c r="F94" s="268" t="s">
+      <c r="F94" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="G94" s="269"/>
-      <c r="H94" s="299"/>
+      <c r="G94" s="232"/>
+      <c r="H94" s="228"/>
       <c r="I94" s="46"/>
       <c r="J94" s="155"/>
       <c r="K94" s="155"/>
@@ -10764,9 +10771,9 @@
       <c r="C95" s="123"/>
       <c r="D95" s="131"/>
       <c r="E95" s="166"/>
-      <c r="F95" s="246"/>
-      <c r="G95" s="247"/>
-      <c r="H95" s="300"/>
+      <c r="F95" s="233"/>
+      <c r="G95" s="234"/>
+      <c r="H95" s="229"/>
       <c r="I95" s="46"/>
       <c r="J95" s="155"/>
       <c r="K95" s="155"/>
@@ -10835,11 +10842,11 @@
       <c r="C96" s="123"/>
       <c r="D96" s="131"/>
       <c r="E96" s="166"/>
-      <c r="F96" s="268" t="s">
+      <c r="F96" s="231" t="s">
         <v>53</v>
       </c>
-      <c r="G96" s="269"/>
-      <c r="H96" s="299"/>
+      <c r="G96" s="232"/>
+      <c r="H96" s="228"/>
       <c r="I96" s="46"/>
       <c r="J96" s="155"/>
       <c r="K96" s="155"/>
@@ -10908,9 +10915,9 @@
       <c r="C97" s="123"/>
       <c r="D97" s="131"/>
       <c r="E97" s="166"/>
-      <c r="F97" s="246"/>
-      <c r="G97" s="247"/>
-      <c r="H97" s="300"/>
+      <c r="F97" s="233"/>
+      <c r="G97" s="234"/>
+      <c r="H97" s="229"/>
       <c r="I97" s="46"/>
       <c r="J97" s="155"/>
       <c r="K97" s="155"/>
@@ -10979,11 +10986,11 @@
       <c r="C98" s="123"/>
       <c r="D98" s="131"/>
       <c r="E98" s="166"/>
-      <c r="F98" s="268" t="s">
+      <c r="F98" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="269"/>
-      <c r="H98" s="299"/>
+      <c r="G98" s="232"/>
+      <c r="H98" s="228"/>
       <c r="I98" s="46"/>
       <c r="J98" s="155"/>
       <c r="K98" s="155"/>
@@ -11052,9 +11059,9 @@
       <c r="C99" s="123"/>
       <c r="D99" s="131"/>
       <c r="E99" s="166"/>
-      <c r="F99" s="246"/>
-      <c r="G99" s="247"/>
-      <c r="H99" s="300"/>
+      <c r="F99" s="233"/>
+      <c r="G99" s="234"/>
+      <c r="H99" s="229"/>
       <c r="I99" s="46"/>
       <c r="J99" s="155"/>
       <c r="K99" s="155"/>
@@ -11123,11 +11130,11 @@
       <c r="C100" s="123"/>
       <c r="D100" s="131"/>
       <c r="E100" s="166"/>
-      <c r="F100" s="268" t="s">
+      <c r="F100" s="231" t="s">
         <v>66</v>
       </c>
-      <c r="G100" s="269"/>
-      <c r="H100" s="299"/>
+      <c r="G100" s="232"/>
+      <c r="H100" s="228"/>
       <c r="I100" s="46"/>
       <c r="J100" s="155"/>
       <c r="K100" s="155"/>
@@ -11196,9 +11203,9 @@
       <c r="C101" s="123"/>
       <c r="D101" s="131"/>
       <c r="E101" s="166"/>
-      <c r="F101" s="246"/>
-      <c r="G101" s="247"/>
-      <c r="H101" s="300"/>
+      <c r="F101" s="233"/>
+      <c r="G101" s="234"/>
+      <c r="H101" s="229"/>
       <c r="I101" s="46"/>
       <c r="J101" s="155"/>
       <c r="K101" s="155"/>
@@ -11267,11 +11274,11 @@
       <c r="C102" s="123"/>
       <c r="D102" s="131"/>
       <c r="E102" s="166"/>
-      <c r="F102" s="268" t="s">
+      <c r="F102" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="G102" s="269"/>
-      <c r="H102" s="299"/>
+      <c r="G102" s="232"/>
+      <c r="H102" s="228"/>
       <c r="I102" s="46"/>
       <c r="J102" s="155"/>
       <c r="K102" s="155"/>
@@ -11340,9 +11347,9 @@
       <c r="C103" s="123"/>
       <c r="D103" s="131"/>
       <c r="E103" s="166"/>
-      <c r="F103" s="246"/>
-      <c r="G103" s="247"/>
-      <c r="H103" s="300"/>
+      <c r="F103" s="233"/>
+      <c r="G103" s="234"/>
+      <c r="H103" s="229"/>
       <c r="I103" s="46"/>
       <c r="J103" s="155"/>
       <c r="K103" s="155"/>
@@ -11411,11 +11418,11 @@
       <c r="C104" s="123"/>
       <c r="D104" s="131"/>
       <c r="E104" s="166"/>
-      <c r="F104" s="268" t="s">
+      <c r="F104" s="231" t="s">
         <v>67</v>
       </c>
-      <c r="G104" s="269"/>
-      <c r="H104" s="299"/>
+      <c r="G104" s="232"/>
+      <c r="H104" s="228"/>
       <c r="I104" s="46"/>
       <c r="J104" s="155"/>
       <c r="K104" s="155"/>
@@ -11484,9 +11491,9 @@
       <c r="C105" s="123"/>
       <c r="D105" s="131"/>
       <c r="E105" s="166"/>
-      <c r="F105" s="246"/>
-      <c r="G105" s="247"/>
-      <c r="H105" s="300"/>
+      <c r="F105" s="233"/>
+      <c r="G105" s="234"/>
+      <c r="H105" s="229"/>
       <c r="I105" s="65"/>
       <c r="J105" s="155"/>
       <c r="K105" s="155"/>
@@ -11555,11 +11562,11 @@
       <c r="C106" s="123"/>
       <c r="D106" s="131"/>
       <c r="E106" s="166"/>
-      <c r="F106" s="268" t="s">
+      <c r="F106" s="231" t="s">
         <v>60</v>
       </c>
-      <c r="G106" s="269"/>
-      <c r="H106" s="299"/>
+      <c r="G106" s="232"/>
+      <c r="H106" s="228"/>
       <c r="I106" s="45"/>
       <c r="J106" s="155"/>
       <c r="K106" s="155"/>
@@ -11628,9 +11635,9 @@
       <c r="C107" s="120"/>
       <c r="D107" s="132"/>
       <c r="E107" s="167"/>
-      <c r="F107" s="302"/>
-      <c r="G107" s="303"/>
-      <c r="H107" s="301"/>
+      <c r="F107" s="235"/>
+      <c r="G107" s="236"/>
+      <c r="H107" s="230"/>
       <c r="I107" s="168"/>
       <c r="J107" s="169"/>
       <c r="K107" s="169"/>
@@ -11741,36 +11748,77 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="F100:G101"/>
-    <mergeCell ref="F102:G103"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="F106:G107"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="F96:G97"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="F78:G79"/>
-    <mergeCell ref="F80:G81"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="F86:G87"/>
-    <mergeCell ref="F88:G89"/>
-    <mergeCell ref="F90:G91"/>
-    <mergeCell ref="F92:G93"/>
-    <mergeCell ref="F94:G95"/>
-    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:AL1"/>
+    <mergeCell ref="AM1:BP1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="C24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="C36:E41"/>
+    <mergeCell ref="A48:A77"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:E23"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C28:E35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="C78:E82"/>
+    <mergeCell ref="C48:E77"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="C42:E47"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="F66:G67"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F74:G75"/>
+    <mergeCell ref="F76:G77"/>
     <mergeCell ref="H76:H77"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="H72:H73"/>
@@ -11795,77 +11843,36 @@
     <mergeCell ref="F54:G55"/>
     <mergeCell ref="F56:G57"/>
     <mergeCell ref="F58:G59"/>
-    <mergeCell ref="C78:E82"/>
-    <mergeCell ref="C48:E77"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="C42:E47"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F74:G75"/>
-    <mergeCell ref="F76:G77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="C36:E41"/>
-    <mergeCell ref="A48:A77"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:E23"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C28:E35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="C24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:AL1"/>
-    <mergeCell ref="AM1:BP1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="F80:G81"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="F86:G87"/>
+    <mergeCell ref="F88:G89"/>
+    <mergeCell ref="F90:G91"/>
+    <mergeCell ref="F92:G93"/>
+    <mergeCell ref="F94:G95"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="F100:G101"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="F106:G107"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="F96:G97"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11899,92 +11906,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="308" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="234" t="s">
+      <c r="D1" s="309"/>
+      <c r="E1" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="237">
+      <c r="F1" s="299">
         <v>45901</v>
       </c>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="237">
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="300"/>
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="300"/>
+      <c r="AA1" s="300"/>
+      <c r="AB1" s="300"/>
+      <c r="AC1" s="300"/>
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="300"/>
+      <c r="AG1" s="300"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="301"/>
+      <c r="AJ1" s="299">
         <v>45931</v>
       </c>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="238"/>
-      <c r="AM1" s="238"/>
-      <c r="AN1" s="238"/>
-      <c r="AO1" s="238"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="238"/>
-      <c r="AR1" s="238"/>
-      <c r="AS1" s="238"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
-      <c r="AW1" s="238"/>
-      <c r="AX1" s="238"/>
-      <c r="AY1" s="238"/>
-      <c r="AZ1" s="238"/>
-      <c r="BA1" s="238"/>
-      <c r="BB1" s="238"/>
-      <c r="BC1" s="238"/>
-      <c r="BD1" s="238"/>
-      <c r="BE1" s="238"/>
-      <c r="BF1" s="238"/>
-      <c r="BG1" s="238"/>
-      <c r="BH1" s="238"/>
-      <c r="BI1" s="238"/>
-      <c r="BJ1" s="238"/>
-      <c r="BK1" s="238"/>
-      <c r="BL1" s="238"/>
-      <c r="BM1" s="238"/>
+      <c r="AK1" s="300"/>
+      <c r="AL1" s="300"/>
+      <c r="AM1" s="300"/>
+      <c r="AN1" s="300"/>
+      <c r="AO1" s="300"/>
+      <c r="AP1" s="300"/>
+      <c r="AQ1" s="300"/>
+      <c r="AR1" s="300"/>
+      <c r="AS1" s="300"/>
+      <c r="AT1" s="300"/>
+      <c r="AU1" s="300"/>
+      <c r="AV1" s="300"/>
+      <c r="AW1" s="300"/>
+      <c r="AX1" s="300"/>
+      <c r="AY1" s="300"/>
+      <c r="AZ1" s="300"/>
+      <c r="BA1" s="300"/>
+      <c r="BB1" s="300"/>
+      <c r="BC1" s="300"/>
+      <c r="BD1" s="300"/>
+      <c r="BE1" s="300"/>
+      <c r="BF1" s="300"/>
+      <c r="BG1" s="300"/>
+      <c r="BH1" s="300"/>
+      <c r="BI1" s="300"/>
+      <c r="BJ1" s="300"/>
+      <c r="BK1" s="300"/>
+      <c r="BL1" s="300"/>
+      <c r="BM1" s="300"/>
       <c r="BN1" s="63"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="235"/>
+      <c r="A2" s="291"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="297"/>
       <c r="F2" s="42">
         <v>42156</v>
       </c>
@@ -12171,11 +12178,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="230"/>
-      <c r="B3" s="233"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="236"/>
+      <c r="A3" s="292"/>
+      <c r="B3" s="295"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="298"/>
       <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
@@ -12362,17 +12369,17 @@
       <c r="BO3" s="41"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="240">
+      <c r="A4" s="261">
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="248"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="302"/>
       <c r="F4" s="45"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -12436,11 +12443,11 @@
       <c r="BN4" s="56"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="241"/>
+      <c r="A5" s="265"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="249"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="303"/>
       <c r="F5" s="47"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -12504,17 +12511,17 @@
       <c r="BN5" s="57"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="240">
+      <c r="A6" s="261">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="256"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="281"/>
       <c r="F6" s="33"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -12578,11 +12585,11 @@
       <c r="BN6" s="58"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="241"/>
+      <c r="A7" s="265"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="257"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="282"/>
       <c r="F7" s="48"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -12646,17 +12653,17 @@
       <c r="BN7" s="59"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="240">
+      <c r="A8" s="261">
         <v>3</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="250" t="s">
+      <c r="C8" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="252"/>
-      <c r="E8" s="256"/>
+      <c r="D8" s="272"/>
+      <c r="E8" s="281"/>
       <c r="F8" s="33"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -12720,11 +12727,11 @@
       <c r="BN8" s="58"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="241"/>
+      <c r="A9" s="265"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="257"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="282"/>
       <c r="F9" s="48"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -12788,17 +12795,17 @@
       <c r="BN9" s="59"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="240">
+      <c r="A10" s="261">
         <v>4</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="250" t="s">
+      <c r="C10" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="256"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="281"/>
       <c r="F10" s="33"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -12862,11 +12869,11 @@
       <c r="BN10" s="58"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="241"/>
+      <c r="A11" s="265"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="257"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="278"/>
+      <c r="E11" s="282"/>
       <c r="F11" s="48"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
@@ -12930,17 +12937,17 @@
       <c r="BN11" s="59"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="240">
+      <c r="A12" s="261">
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="250" t="s">
+      <c r="C12" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="252"/>
-      <c r="E12" s="256"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="281"/>
       <c r="F12" s="33"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -13004,11 +13011,11 @@
       <c r="BN12" s="58"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="241"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="257"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="282"/>
       <c r="F13" s="48"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -13078,11 +13085,11 @@
       <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="250" t="s">
+      <c r="C14" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="252"/>
-      <c r="E14" s="277"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="280"/>
       <c r="F14" s="70"/>
       <c r="G14" s="71"/>
       <c r="H14" s="71"/>
@@ -13151,7 +13158,7 @@
       <c r="B15" s="30"/>
       <c r="C15" s="102"/>
       <c r="D15" s="103"/>
-      <c r="E15" s="331"/>
+      <c r="E15" s="306"/>
       <c r="F15" s="74"/>
       <c r="G15" s="75"/>
       <c r="H15" s="75"/>
@@ -13217,11 +13224,11 @@
     <row r="16" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="64"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="329" t="s">
+      <c r="C16" s="304" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="330"/>
-      <c r="E16" s="332"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="307"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
@@ -13289,7 +13296,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
-      <c r="E17" s="331"/>
+      <c r="E17" s="306"/>
       <c r="F17" s="88"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
@@ -13359,7 +13366,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="54"/>
-      <c r="E18" s="332"/>
+      <c r="E18" s="307"/>
       <c r="F18" s="88"/>
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
@@ -13425,9 +13432,9 @@
     <row r="19" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="64"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="278"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="244"/>
       <c r="F19" s="65"/>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
@@ -13491,17 +13498,17 @@
       <c r="BN19" s="69"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="240">
+      <c r="A20" s="261">
         <v>6</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="267" t="s">
+      <c r="C20" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="256"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="281"/>
       <c r="F20" s="33"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -13565,11 +13572,11 @@
       <c r="BN20" s="58"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="241"/>
+      <c r="A21" s="265"/>
       <c r="B21" s="30"/>
-      <c r="C21" s="316"/>
-      <c r="D21" s="317"/>
-      <c r="E21" s="322"/>
+      <c r="C21" s="314"/>
+      <c r="D21" s="315"/>
+      <c r="E21" s="316"/>
       <c r="F21" s="47"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -13633,15 +13640,15 @@
       <c r="BN21" s="57"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="240">
+      <c r="A22" s="261">
         <v>7</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="242" t="s">
+      <c r="C22" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="244"/>
-      <c r="E22" s="318"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="317"/>
       <c r="F22" s="46"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -13705,11 +13712,11 @@
       <c r="BN22" s="60"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="241"/>
+      <c r="A23" s="265"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="317"/>
-      <c r="E23" s="322"/>
+      <c r="C23" s="314"/>
+      <c r="D23" s="315"/>
+      <c r="E23" s="316"/>
       <c r="F23" s="47"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -13773,15 +13780,15 @@
       <c r="BN23" s="57"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="240">
+      <c r="A24" s="261">
         <v>8</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="242" t="s">
+      <c r="C24" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="244"/>
-      <c r="E24" s="318"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="317"/>
       <c r="F24" s="47"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -13845,11 +13852,11 @@
       <c r="BN24" s="57"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="241"/>
+      <c r="A25" s="265"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="257"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="282"/>
       <c r="F25" s="49"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -13913,17 +13920,17 @@
       <c r="BN25" s="61"/>
     </row>
     <row r="26" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="240">
+      <c r="A26" s="261">
         <v>9</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="269"/>
-      <c r="E26" s="256"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="281"/>
       <c r="F26" s="33"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -13987,11 +13994,11 @@
       <c r="BN26" s="58"/>
     </row>
     <row r="27" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="241"/>
+      <c r="A27" s="265"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="316"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="322"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="315"/>
+      <c r="E27" s="316"/>
       <c r="F27" s="46"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -14055,15 +14062,15 @@
       <c r="BN27" s="60"/>
     </row>
     <row r="28" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="240">
+      <c r="A28" s="261">
         <v>10</v>
       </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="315" t="s">
+      <c r="C28" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="244"/>
-      <c r="E28" s="318"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="317"/>
       <c r="F28" s="46"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -14127,11 +14134,11 @@
       <c r="BN28" s="60"/>
     </row>
     <row r="29" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="241"/>
+      <c r="A29" s="265"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="316"/>
-      <c r="D29" s="317"/>
-      <c r="E29" s="322"/>
+      <c r="C29" s="314"/>
+      <c r="D29" s="315"/>
+      <c r="E29" s="316"/>
       <c r="F29" s="46"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -14195,15 +14202,15 @@
       <c r="BN29" s="60"/>
     </row>
     <row r="30" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="240">
+      <c r="A30" s="261">
         <v>11</v>
       </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="315" t="s">
+      <c r="C30" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="244"/>
-      <c r="E30" s="318"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="317"/>
       <c r="F30" s="47"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -14267,11 +14274,11 @@
       <c r="BN30" s="57"/>
     </row>
     <row r="31" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="241"/>
+      <c r="A31" s="265"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="316"/>
-      <c r="D31" s="317"/>
-      <c r="E31" s="257"/>
+      <c r="C31" s="314"/>
+      <c r="D31" s="315"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="49"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -14335,7 +14342,7 @@
       <c r="BN31" s="61"/>
     </row>
     <row r="32" spans="1:67" ht="12" customHeight="1">
-      <c r="A32" s="240">
+      <c r="A32" s="261">
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -14345,7 +14352,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="320"/>
-      <c r="E32" s="321"/>
+      <c r="E32" s="323"/>
       <c r="F32" s="33"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -14410,11 +14417,11 @@
       <c r="BO32" s="3"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="241"/>
+      <c r="A33" s="265"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="305"/>
-      <c r="E33" s="308"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="322"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="46"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -14479,15 +14486,15 @@
       <c r="BO33" s="3"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="240">
+      <c r="A34" s="261">
         <v>13</v>
       </c>
       <c r="B34" s="28"/>
-      <c r="C34" s="304" t="s">
+      <c r="C34" s="321" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="305"/>
-      <c r="E34" s="308"/>
+      <c r="D34" s="322"/>
+      <c r="E34" s="324"/>
       <c r="F34" s="46"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -14552,11 +14559,11 @@
       <c r="BO34" s="3"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="241"/>
+      <c r="A35" s="265"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="306"/>
-      <c r="D35" s="307"/>
-      <c r="E35" s="309"/>
+      <c r="C35" s="325"/>
+      <c r="D35" s="326"/>
+      <c r="E35" s="327"/>
       <c r="F35" s="49"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -14621,17 +14628,17 @@
       <c r="BO35" s="3"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="240">
+      <c r="A36" s="261">
         <v>14</v>
       </c>
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="328" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="267" t="s">
+      <c r="C36" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="269"/>
-      <c r="E36" s="313"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="331"/>
       <c r="F36" s="33"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -14696,11 +14703,11 @@
       <c r="BO36" s="3"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="241"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="303"/>
-      <c r="E37" s="314"/>
+      <c r="A37" s="265"/>
+      <c r="B37" s="329"/>
+      <c r="C37" s="330"/>
+      <c r="D37" s="236"/>
+      <c r="E37" s="332"/>
       <c r="F37" s="34"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -14790,6 +14797,54 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:AI1"/>
     <mergeCell ref="AJ1:BM1"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C14:D14"/>
@@ -14797,54 +14852,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
